--- a/TsakonianDB/tables/main.xlsx
+++ b/TsakonianDB/tables/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\TsakonianDB\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA792B9-E142-40C4-AE15-AC694F2146DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF77025-BFA2-4ACB-9730-185BB2E4D0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>tsakonian</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Δ1</t>
+  </si>
+  <si>
+    <t>κ̇οντούκου</t>
+  </si>
+  <si>
+    <t>κρατάω</t>
   </si>
 </sst>
 </file>
@@ -203,8 +209,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{026E7425-6AE1-4445-B5B5-159D1B7680D9}" name="Tabla1" displayName="Tabla1" ref="A1:D3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D3" xr:uid="{026E7425-6AE1-4445-B5B5-159D1B7680D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{026E7425-6AE1-4445-B5B5-159D1B7680D9}" name="Tabla1" displayName="Tabla1" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D4" xr:uid="{026E7425-6AE1-4445-B5B5-159D1B7680D9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FA2F0861-8915-4E2E-B6DC-B7DD84954D84}" name="tsakonian" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{7435C687-28E2-4315-B48B-11E352CB6356}" name="greek" dataDxfId="2"/>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -534,6 +540,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/TsakonianDB/tables/main.xlsx
+++ b/TsakonianDB/tables/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\TsakonianDB\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF77025-BFA2-4ACB-9730-185BB2E4D0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420FBAB1-96D4-4611-B928-20446D2F7D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="478">
   <si>
     <t>tsakonian</t>
   </si>
@@ -45,22 +45,1420 @@
     <t>έχω</t>
   </si>
   <si>
-    <t>Ε</t>
-  </si>
-  <si>
     <t>σατσινέ</t>
   </si>
   <si>
     <t>φετινός</t>
   </si>
   <si>
-    <t>Δ1</t>
-  </si>
-  <si>
     <t>κ̇οντούκου</t>
   </si>
   <si>
     <t>κρατάω</t>
+  </si>
+  <si>
+    <t>παρίου</t>
+  </si>
+  <si>
+    <t>έρχομαι</t>
+  </si>
+  <si>
+    <t>αού</t>
+  </si>
+  <si>
+    <t>λέω</t>
+  </si>
+  <si>
+    <t>ορού</t>
+  </si>
+  <si>
+    <t>βλέπω</t>
+  </si>
+  <si>
+    <t>ορούμενε</t>
+  </si>
+  <si>
+    <t>φαίνομαι</t>
+  </si>
+  <si>
+    <t>έγγου</t>
+  </si>
+  <si>
+    <t>πηγαίνω</t>
+  </si>
+  <si>
+    <t>ποίου</t>
+  </si>
+  <si>
+    <t>κάνω</t>
+  </si>
+  <si>
+    <t>νίου</t>
+  </si>
+  <si>
+    <t>ακούω</t>
+  </si>
+  <si>
+    <t>νιού</t>
+  </si>
+  <si>
+    <t>μηλάω</t>
+  </si>
+  <si>
+    <t>χάνου</t>
+  </si>
+  <si>
+    <t>χάνω</t>
+  </si>
+  <si>
+    <t>χαού</t>
+  </si>
+  <si>
+    <t>χαλάω</t>
+  </si>
+  <si>
+    <t>μπαίνου</t>
+  </si>
+  <si>
+    <t>μπαίνω</t>
+  </si>
+  <si>
+    <t>μπάνου</t>
+  </si>
+  <si>
+    <t>βγάζω</t>
+  </si>
+  <si>
+    <t>μπαΐνου</t>
+  </si>
+  <si>
+    <t>ανεβαίνω; Βγαίνω</t>
+  </si>
+  <si>
+    <t>ντίου</t>
+  </si>
+  <si>
+    <t>χτυπώ</t>
+  </si>
+  <si>
+    <t>δίου</t>
+  </si>
+  <si>
+    <t>δίνω</t>
+  </si>
+  <si>
+    <t>τσ̌ου</t>
+  </si>
+  <si>
+    <t>τρώω</t>
+  </si>
+  <si>
+    <t>κίνου</t>
+  </si>
+  <si>
+    <t>πίνω</t>
+  </si>
+  <si>
+    <t>κεινού</t>
+  </si>
+  <si>
+    <t>πεινάω</t>
+  </si>
+  <si>
+    <t>γεού</t>
+  </si>
+  <si>
+    <t>γελάω</t>
+  </si>
+  <si>
+    <t>βού</t>
+  </si>
+  <si>
+    <t>κλαίω</t>
+  </si>
+  <si>
+    <t>τ̇αΐχου</t>
+  </si>
+  <si>
+    <t>σηκώνω</t>
+  </si>
+  <si>
+    <t>τ̇αίνου</t>
+  </si>
+  <si>
+    <t>σηκώνομαι</t>
+  </si>
+  <si>
+    <t>κασημένε</t>
+  </si>
+  <si>
+    <t>κάθομαι</t>
+  </si>
+  <si>
+    <t>κασήου</t>
+  </si>
+  <si>
+    <t>κοιμάμαι</t>
+  </si>
+  <si>
+    <t>κιούφου</t>
+  </si>
+  <si>
+    <t>τσ̌άχου</t>
+  </si>
+  <si>
+    <t>τρέχω</t>
+  </si>
+  <si>
+    <t>νέμου</t>
+  </si>
+  <si>
+    <t>βοσκώ</t>
+  </si>
+  <si>
+    <t>ψαφού</t>
+  </si>
+  <si>
+    <t>ψάχνω</t>
+  </si>
+  <si>
+    <t>φουσού</t>
+  </si>
+  <si>
+    <t>φυσάω</t>
+  </si>
+  <si>
+    <t>αρού</t>
+  </si>
+  <si>
+    <t>αρμέγω</t>
+  </si>
+  <si>
+    <t>μπορού</t>
+  </si>
+  <si>
+    <t>μπορώ</t>
+  </si>
+  <si>
+    <t>ρωτού</t>
+  </si>
+  <si>
+    <t>ρωτάω</t>
+  </si>
+  <si>
+    <t>αραμού</t>
+  </si>
+  <si>
+    <t>μένω, κατοικώ</t>
+  </si>
+  <si>
+    <t>μοζού</t>
+  </si>
+  <si>
+    <t>πονάω</t>
+  </si>
+  <si>
+    <t>θυνίχου</t>
+  </si>
+  <si>
+    <t>θυμίζω</t>
+  </si>
+  <si>
+    <t>θυμούμενε</t>
+  </si>
+  <si>
+    <t>θυμάμαι</t>
+  </si>
+  <si>
+    <t>μπέχου</t>
+  </si>
+  <si>
+    <t>σκεπάζω</t>
+  </si>
+  <si>
+    <t>βρέχου</t>
+  </si>
+  <si>
+    <t>βρέχω</t>
+  </si>
+  <si>
+    <t>ερέχου</t>
+  </si>
+  <si>
+    <t>βρίσκω</t>
+  </si>
+  <si>
+    <t>ερικ̇ούμενε</t>
+  </si>
+  <si>
+    <t>βρίσκομαι</t>
+  </si>
+  <si>
+    <t>γκιούκ̇ου</t>
+  </si>
+  <si>
+    <t>ντύνω</t>
+  </si>
+  <si>
+    <t>γκιουκ̇ούμενε</t>
+  </si>
+  <si>
+    <t>ντύνομαι</t>
+  </si>
+  <si>
+    <t>απρούκ̇ου</t>
+  </si>
+  <si>
+    <t>απλώνω</t>
+  </si>
+  <si>
+    <t>κ̇οντουκ̇ου</t>
+  </si>
+  <si>
+    <t>αποσούκ̇ου</t>
+  </si>
+  <si>
+    <t>πηγαίνω, μεταφέρω</t>
+  </si>
+  <si>
+    <t>αργούκ̇ου</t>
+  </si>
+  <si>
+    <t>οργώνω</t>
+  </si>
+  <si>
+    <t>αρίκ̇ου</t>
+  </si>
+  <si>
+    <t>παίρνω</t>
+  </si>
+  <si>
+    <t>σούνου</t>
+  </si>
+  <si>
+    <t>φτάνω; Σώζω</t>
+  </si>
+  <si>
+    <t>σουσκούμενε</t>
+  </si>
+  <si>
+    <t>τελειώνω</t>
+  </si>
+  <si>
+    <t>κλείνου</t>
+  </si>
+  <si>
+    <t>κλείνω</t>
+  </si>
+  <si>
+    <t>κατσ̌ούνου</t>
+  </si>
+  <si>
+    <t>σπάζω</t>
+  </si>
+  <si>
+    <t>φταίνω</t>
+  </si>
+  <si>
+    <t>ψήνω</t>
+  </si>
+  <si>
+    <t>φταινούμενε</t>
+  </si>
+  <si>
+    <t>ψήνομαι</t>
+  </si>
+  <si>
+    <t>κιάνου</t>
+  </si>
+  <si>
+    <t>πιάνω</t>
+  </si>
+  <si>
+    <t>κιανούμενε</t>
+  </si>
+  <si>
+    <t>πιάνομαι</t>
+  </si>
+  <si>
+    <t>γκριούφου</t>
+  </si>
+  <si>
+    <t>κρύβω</t>
+  </si>
+  <si>
+    <t>γκριουφούμενε</t>
+  </si>
+  <si>
+    <t>γκριουφτού</t>
+  </si>
+  <si>
+    <t>περού</t>
+  </si>
+  <si>
+    <t>περνώ</t>
+  </si>
+  <si>
+    <t>μπλέγγου</t>
+  </si>
+  <si>
+    <t>διώχνω</t>
+  </si>
+  <si>
+    <t>μπερδεύω, μπλέκω</t>
+  </si>
+  <si>
+    <t>ένι</t>
+  </si>
+  <si>
+    <t>είμαι</t>
+  </si>
+  <si>
+    <t>τσαι</t>
+  </si>
+  <si>
+    <t>και</t>
+  </si>
+  <si>
+    <t>με</t>
+  </si>
+  <si>
+    <t>ατσ̌έ</t>
+  </si>
+  <si>
+    <t>μεγάλος</t>
+  </si>
+  <si>
+    <t>ταχία</t>
+  </si>
+  <si>
+    <t>αύριο</t>
+  </si>
+  <si>
+    <t>το πέρατσε</t>
+  </si>
+  <si>
+    <t>πέρυσι</t>
+  </si>
+  <si>
+    <t>τότ̇ε</t>
+  </si>
+  <si>
+    <t>τότε</t>
+  </si>
+  <si>
+    <t>του τσαιρού</t>
+  </si>
+  <si>
+    <t>του χρόνου</t>
+  </si>
+  <si>
+    <t>πλέα</t>
+  </si>
+  <si>
+    <t>πιά, επιτέλους</t>
+  </si>
+  <si>
+    <t>σάματσι</t>
+  </si>
+  <si>
+    <t>μήπως</t>
+  </si>
+  <si>
+    <t>τσόα</t>
+  </si>
+  <si>
+    <t>κιόλας</t>
+  </si>
+  <si>
+    <t>απέ</t>
+  </si>
+  <si>
+    <t>λοιπόν</t>
+  </si>
+  <si>
+    <t>τανασκ̇ρία</t>
+  </si>
+  <si>
+    <t>μεθαύριο</t>
+  </si>
+  <si>
+    <t>τατσιπέρι</t>
+  </si>
+  <si>
+    <t>προχθές</t>
+  </si>
+  <si>
+    <t>έτρου</t>
+  </si>
+  <si>
+    <t>έτσι</t>
+  </si>
+  <si>
+    <t>μ'έκεινι όλιου</t>
+  </si>
+  <si>
+    <t>παρ'όλα αυτά</t>
+  </si>
+  <si>
+    <t>τσίπτα</t>
+  </si>
+  <si>
+    <t>τίποτα</t>
+  </si>
+  <si>
+    <t>πάσ̌ου</t>
+  </si>
+  <si>
+    <t>πολύ</t>
+  </si>
+  <si>
+    <t>πρεσ̌ού</t>
+  </si>
+  <si>
+    <t>αλλιά</t>
+  </si>
+  <si>
+    <t>αλλού</t>
+  </si>
+  <si>
+    <t>απανούσε</t>
+  </si>
+  <si>
+    <t>από πάνω</t>
+  </si>
+  <si>
+    <t>ακατούσε</t>
+  </si>
+  <si>
+    <t>από κάτω</t>
+  </si>
+  <si>
+    <t>τάσου</t>
+  </si>
+  <si>
+    <t>μέσα</t>
+  </si>
+  <si>
+    <t>τάτσου</t>
+  </si>
+  <si>
+    <t>έξω</t>
+  </si>
+  <si>
+    <t>απότσου</t>
+  </si>
+  <si>
+    <t>απ'έξω</t>
+  </si>
+  <si>
+    <t>αντζά</t>
+  </si>
+  <si>
+    <t>απέναντι</t>
+  </si>
+  <si>
+    <t>γιούρε γιούρε</t>
+  </si>
+  <si>
+    <t>γύρο γύρο</t>
+  </si>
+  <si>
+    <t>κάκια</t>
+  </si>
+  <si>
+    <t>κάπου</t>
+  </si>
+  <si>
+    <t>κ̇ήπτα</t>
+  </si>
+  <si>
+    <t>πουθενά</t>
+  </si>
+  <si>
+    <t>κια</t>
+  </si>
+  <si>
+    <t>που</t>
+  </si>
+  <si>
+    <t>κίσου</t>
+  </si>
+  <si>
+    <t>πίσω</t>
+  </si>
+  <si>
+    <t>οπά</t>
+  </si>
+  <si>
+    <t>εκεί</t>
+  </si>
+  <si>
+    <t>πουρτέσε</t>
+  </si>
+  <si>
+    <t>μπροστά</t>
+  </si>
+  <si>
+    <t>ανάκοντα</t>
+  </si>
+  <si>
+    <t>κοντά</t>
+  </si>
+  <si>
+    <t>ογί</t>
+  </si>
+  <si>
+    <t>εδώ</t>
+  </si>
+  <si>
+    <t>όρεγι</t>
+  </si>
+  <si>
+    <t>εδώ ακριβώς</t>
+  </si>
+  <si>
+    <t>όκια</t>
+  </si>
+  <si>
+    <t>όπου</t>
+  </si>
+  <si>
+    <t>όρπα</t>
+  </si>
+  <si>
+    <t>πέρε</t>
+  </si>
+  <si>
+    <t>πέρα</t>
+  </si>
+  <si>
+    <t>χάμου</t>
+  </si>
+  <si>
+    <t>κάτω</t>
+  </si>
+  <si>
+    <t>τάνου</t>
+  </si>
+  <si>
+    <t>πάνω</t>
+  </si>
+  <si>
+    <t>παρατάνου</t>
+  </si>
+  <si>
+    <t>παραπάνω, πιο πάνω</t>
+  </si>
+  <si>
+    <t>κάτου</t>
+  </si>
+  <si>
+    <t>ακόνη</t>
+  </si>
+  <si>
+    <t>ακόμη</t>
+  </si>
+  <si>
+    <t>έδαρι</t>
+  </si>
+  <si>
+    <t>τώρα</t>
+  </si>
+  <si>
+    <t>σάμερε</t>
+  </si>
+  <si>
+    <t>σήμερα</t>
+  </si>
+  <si>
+    <t>επ̇έρι</t>
+  </si>
+  <si>
+    <t>χθες</t>
+  </si>
+  <si>
+    <t>μπρου</t>
+  </si>
+  <si>
+    <t>πριν</t>
+  </si>
+  <si>
+    <t>νούρα</t>
+  </si>
+  <si>
+    <t>νωρίς</t>
+  </si>
+  <si>
+    <t>ότσι</t>
+  </si>
+  <si>
+    <t>ότι</t>
+  </si>
+  <si>
+    <t>π̇η</t>
+  </si>
+  <si>
+    <t>ντούρμα</t>
+  </si>
+  <si>
+    <t>μόλις</t>
+  </si>
+  <si>
+    <t>σάτσι</t>
+  </si>
+  <si>
+    <t>φέτος</t>
+  </si>
+  <si>
+    <t>σύνταχα</t>
+  </si>
+  <si>
+    <t>πρωί</t>
+  </si>
+  <si>
+    <t>Ζ</t>
+  </si>
+  <si>
+    <t>αψελέ</t>
+  </si>
+  <si>
+    <t>ψηλός</t>
+  </si>
+  <si>
+    <t>χαμελέ</t>
+  </si>
+  <si>
+    <t>χαμηλός</t>
+  </si>
+  <si>
+    <t>μιτσί</t>
+  </si>
+  <si>
+    <t>μικρός</t>
+  </si>
+  <si>
+    <t>βαθιού</t>
+  </si>
+  <si>
+    <t>βαθύς</t>
+  </si>
+  <si>
+    <t>βαριού</t>
+  </si>
+  <si>
+    <t>βαρύς</t>
+  </si>
+  <si>
+    <t>πρεσσέ</t>
+  </si>
+  <si>
+    <t>πολύς</t>
+  </si>
+  <si>
+    <t>καλέ</t>
+  </si>
+  <si>
+    <t>καλός</t>
+  </si>
+  <si>
+    <t>ντόκιε</t>
+  </si>
+  <si>
+    <t>ντόπιος</t>
+  </si>
+  <si>
+    <t>κολλέγα</t>
+  </si>
+  <si>
+    <t>φίλος</t>
+  </si>
+  <si>
+    <t>Α</t>
+  </si>
+  <si>
+    <t>αργά</t>
+  </si>
+  <si>
+    <t>βράδυ</t>
+  </si>
+  <si>
+    <t>μ'έτ̇ε συχωρούντε</t>
+  </si>
+  <si>
+    <t>με συγχορείτε</t>
+  </si>
+  <si>
+    <t>εμ'έχου δίτσε</t>
+  </si>
+  <si>
+    <t>έχω δίκιο</t>
+  </si>
+  <si>
+    <t>πλέτεριου</t>
+  </si>
+  <si>
+    <t>περισσότερο</t>
+  </si>
+  <si>
+    <t>ευχαριστού</t>
+  </si>
+  <si>
+    <t>ευχαριστώ</t>
+  </si>
+  <si>
+    <t>μ'έν̇'αρέσουντα</t>
+  </si>
+  <si>
+    <t>μ'αρέσει</t>
+  </si>
+  <si>
+    <t>ο</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>η</t>
+  </si>
+  <si>
+    <t>το</t>
+  </si>
+  <si>
+    <t>Α1</t>
+  </si>
+  <si>
+    <t>αχρά</t>
+  </si>
+  <si>
+    <t>Δευτέρα</t>
+  </si>
+  <si>
+    <t>δεύτερα</t>
+  </si>
+  <si>
+    <t>τσ̌ίτα</t>
+  </si>
+  <si>
+    <t>Τρίτη</t>
+  </si>
+  <si>
+    <t>τίτιντα</t>
+  </si>
+  <si>
+    <t>Πέμπτη</t>
+  </si>
+  <si>
+    <t>πέφτα</t>
+  </si>
+  <si>
+    <t>Τέταρτη</t>
+  </si>
+  <si>
+    <t>παράστσι</t>
+  </si>
+  <si>
+    <t>Παρασκευή</t>
+  </si>
+  <si>
+    <t>σάμπα</t>
+  </si>
+  <si>
+    <t>Σάββατο</t>
+  </si>
+  <si>
+    <t>τσουρακά</t>
+  </si>
+  <si>
+    <t>Κυριακή</t>
+  </si>
+  <si>
+    <t>άνοιξη</t>
+  </si>
+  <si>
+    <t>χινόπωρε</t>
+  </si>
+  <si>
+    <t>φθινόπωρο</t>
+  </si>
+  <si>
+    <t>καουτσαίρι</t>
+  </si>
+  <si>
+    <t>καλοκαίρι</t>
+  </si>
+  <si>
+    <t>χειμωνικό</t>
+  </si>
+  <si>
+    <t>χειμώνας</t>
+  </si>
+  <si>
+    <t>γενάρη</t>
+  </si>
+  <si>
+    <t>γενάρης</t>
+  </si>
+  <si>
+    <t>φλεβάρη</t>
+  </si>
+  <si>
+    <t>φλεβάρης</t>
+  </si>
+  <si>
+    <t>μάτζη</t>
+  </si>
+  <si>
+    <t>μάρτης</t>
+  </si>
+  <si>
+    <t>απρίλη</t>
+  </si>
+  <si>
+    <t>απρίλης</t>
+  </si>
+  <si>
+    <t>αμάη</t>
+  </si>
+  <si>
+    <t>μάης</t>
+  </si>
+  <si>
+    <t>σερικ̇ή</t>
+  </si>
+  <si>
+    <t>ιούνιος</t>
+  </si>
+  <si>
+    <t>αωνάρη</t>
+  </si>
+  <si>
+    <t>ιούλιος</t>
+  </si>
+  <si>
+    <t>άγουστε</t>
+  </si>
+  <si>
+    <t>αύγουστος</t>
+  </si>
+  <si>
+    <t>σετέμπρη</t>
+  </si>
+  <si>
+    <t>σεπτέμβριος</t>
+  </si>
+  <si>
+    <t>οκτώμπρη</t>
+  </si>
+  <si>
+    <t>οκτώβριος</t>
+  </si>
+  <si>
+    <t>νοέμπρη</t>
+  </si>
+  <si>
+    <t>νοέμβριος</t>
+  </si>
+  <si>
+    <t>δετσέμπρη</t>
+  </si>
+  <si>
+    <t>δεκέμβριος</t>
+  </si>
+  <si>
+    <t>κουκί</t>
+  </si>
+  <si>
+    <t>κουτί</t>
+  </si>
+  <si>
+    <t>πούα</t>
+  </si>
+  <si>
+    <t>πόδι</t>
+  </si>
+  <si>
+    <t>Α2</t>
+  </si>
+  <si>
+    <t>τσαιρέ</t>
+  </si>
+  <si>
+    <t>καιρός</t>
+  </si>
+  <si>
+    <t>τσεία</t>
+  </si>
+  <si>
+    <t>θεία</t>
+  </si>
+  <si>
+    <t>τσ̌ιφου</t>
+  </si>
+  <si>
+    <t>τρίβω</t>
+  </si>
+  <si>
+    <t>Ρ</t>
+  </si>
+  <si>
+    <t>Θ</t>
+  </si>
+  <si>
+    <t>Ε1</t>
+  </si>
+  <si>
+    <t>Ε9</t>
+  </si>
+  <si>
+    <t>Ε7</t>
+  </si>
+  <si>
+    <t>Ε3</t>
+  </si>
+  <si>
+    <t>ψιλέ</t>
+  </si>
+  <si>
+    <t>μάτι</t>
+  </si>
+  <si>
+    <t>άγο</t>
+  </si>
+  <si>
+    <t>αλογο</t>
+  </si>
+  <si>
+    <t>άσου</t>
+  </si>
+  <si>
+    <t>αλλάζω</t>
+  </si>
+  <si>
+    <t>αφέγκη</t>
+  </si>
+  <si>
+    <t>πατέρας</t>
+  </si>
+  <si>
+    <t>Α5</t>
+  </si>
+  <si>
+    <t>μάτη</t>
+  </si>
+  <si>
+    <t>μητέρα</t>
+  </si>
+  <si>
+    <t>Θ0</t>
+  </si>
+  <si>
+    <t>παππού</t>
+  </si>
+  <si>
+    <t>μαμού</t>
+  </si>
+  <si>
+    <t>παππούς</t>
+  </si>
+  <si>
+    <t>γιαγιά</t>
+  </si>
+  <si>
+    <t>Θ4</t>
+  </si>
+  <si>
+    <t>υζέ</t>
+  </si>
+  <si>
+    <t>γιος</t>
+  </si>
+  <si>
+    <t>σάτη</t>
+  </si>
+  <si>
+    <t>κόρη</t>
+  </si>
+  <si>
+    <t>αϊθη</t>
+  </si>
+  <si>
+    <t>αδελφός</t>
+  </si>
+  <si>
+    <t>Α0</t>
+  </si>
+  <si>
+    <t>αθιά</t>
+  </si>
+  <si>
+    <t>αδελφή</t>
+  </si>
+  <si>
+    <t>Θ1</t>
+  </si>
+  <si>
+    <t>τσίε</t>
+  </si>
+  <si>
+    <t>θείος</t>
+  </si>
+  <si>
+    <t>Α4</t>
+  </si>
+  <si>
+    <t>Θ5</t>
+  </si>
+  <si>
+    <t>ξάδελφος</t>
+  </si>
+  <si>
+    <t>τσάδεφο</t>
+  </si>
+  <si>
+    <t>ξάδελφη</t>
+  </si>
+  <si>
+    <t>άθρωπο</t>
+  </si>
+  <si>
+    <t>άνθροπος</t>
+  </si>
+  <si>
+    <t>άτσ̌ωπο</t>
+  </si>
+  <si>
+    <t>άνδρας</t>
+  </si>
+  <si>
+    <t>γουναίκα</t>
+  </si>
+  <si>
+    <t>γυναίκα</t>
+  </si>
+  <si>
+    <t>τσουφά</t>
+  </si>
+  <si>
+    <t>κεφάλι</t>
+  </si>
+  <si>
+    <t>Θ2</t>
+  </si>
+  <si>
+    <t>αβουτάνα</t>
+  </si>
+  <si>
+    <t>αυτί</t>
+  </si>
+  <si>
+    <t>σ̌ουκο</t>
+  </si>
+  <si>
+    <t>μύτι</t>
+  </si>
+  <si>
+    <t>Υ</t>
+  </si>
+  <si>
+    <t>Υ2</t>
+  </si>
+  <si>
+    <t>εζού</t>
+  </si>
+  <si>
+    <t>εγώ</t>
+  </si>
+  <si>
+    <t>εμείς</t>
+  </si>
+  <si>
+    <t>ενεί</t>
+  </si>
+  <si>
+    <t>εκιού</t>
+  </si>
+  <si>
+    <t>εσύ</t>
+  </si>
+  <si>
+    <t>εμού</t>
+  </si>
+  <si>
+    <t>εσείς</t>
+  </si>
+  <si>
+    <t>κρέμμου</t>
+  </si>
+  <si>
+    <t>κρεμμίδι</t>
+  </si>
+  <si>
+    <t>σκούντι</t>
+  </si>
+  <si>
+    <t>σκόρδο</t>
+  </si>
+  <si>
+    <t>απ̇αρα</t>
+  </si>
+  <si>
+    <t>πράσο</t>
+  </si>
+  <si>
+    <t>ντουμάτα</t>
+  </si>
+  <si>
+    <t>ντομάτα</t>
+  </si>
+  <si>
+    <t>κότσιτα</t>
+  </si>
+  <si>
+    <t>κολοκύθα</t>
+  </si>
+  <si>
+    <t>ζ̌ούγανη</t>
+  </si>
+  <si>
+    <t>ρίγανη</t>
+  </si>
+  <si>
+    <t>αντζίναρε</t>
+  </si>
+  <si>
+    <t>αγκινάρα</t>
+  </si>
+  <si>
+    <t>Α3</t>
+  </si>
+  <si>
+    <t>ελ̣ία</t>
+  </si>
+  <si>
+    <t>ελιά</t>
+  </si>
+  <si>
+    <t>σούκο</t>
+  </si>
+  <si>
+    <t>σύκο</t>
+  </si>
+  <si>
+    <t>βότσ̌ε</t>
+  </si>
+  <si>
+    <t>σταφύλι</t>
+  </si>
+  <si>
+    <t>μάλ̣ι</t>
+  </si>
+  <si>
+    <t>μήλο</t>
+  </si>
+  <si>
+    <t>Υ0</t>
+  </si>
+  <si>
+    <t>αχλάδι</t>
+  </si>
+  <si>
+    <t>Α6</t>
+  </si>
+  <si>
+    <t>άντε</t>
+  </si>
+  <si>
+    <t>ψωμί</t>
+  </si>
+  <si>
+    <t>άρτουμα</t>
+  </si>
+  <si>
+    <t>τυρί</t>
+  </si>
+  <si>
+    <t>Υ1</t>
+  </si>
+  <si>
+    <t>άτσι</t>
+  </si>
+  <si>
+    <t>αλάτι</t>
+  </si>
+  <si>
+    <t>ύο</t>
+  </si>
+  <si>
+    <t>νερό</t>
+  </si>
+  <si>
+    <t>φακά</t>
+  </si>
+  <si>
+    <t>φακή</t>
+  </si>
+  <si>
+    <t>κρίε</t>
+  </si>
+  <si>
+    <t>κρέας</t>
+  </si>
+  <si>
+    <t>Υ5</t>
+  </si>
+  <si>
+    <t>γα</t>
+  </si>
+  <si>
+    <t>γάλα</t>
+  </si>
+  <si>
+    <t>αφόκιουρη</t>
+  </si>
+  <si>
+    <t>μυζήθρα</t>
+  </si>
+  <si>
+    <t>άλητε</t>
+  </si>
+  <si>
+    <t>αλεύρι</t>
+  </si>
+  <si>
+    <t>γιοργούκι</t>
+  </si>
+  <si>
+    <t>γιαούρτι</t>
+  </si>
+  <si>
+    <t>άι</t>
+  </si>
+  <si>
+    <t>λάδι</t>
+  </si>
+  <si>
+    <t>νίγδαλε</t>
+  </si>
+  <si>
+    <t>μύγδαλο</t>
+  </si>
+  <si>
+    <t>κούε</t>
+  </si>
+  <si>
+    <t>σκύλος</t>
+  </si>
+  <si>
+    <t>κατσούα</t>
+  </si>
+  <si>
+    <t>γάτα</t>
+  </si>
+  <si>
+    <t>κότ̇α</t>
+  </si>
+  <si>
+    <t>κότα</t>
+  </si>
+  <si>
+    <t>βούλε</t>
+  </si>
+  <si>
+    <t>κόκορας</t>
+  </si>
+  <si>
+    <t>όνε</t>
+  </si>
+  <si>
+    <t>γάιδαρος</t>
+  </si>
+  <si>
+    <t>άλογο</t>
+  </si>
+  <si>
+    <t>μόκ̇ο</t>
+  </si>
+  <si>
+    <t>αγελάδα</t>
+  </si>
+  <si>
+    <t>μοσχάρι</t>
+  </si>
+  <si>
+    <t>κούλικα</t>
+  </si>
+  <si>
+    <t>προύατε</t>
+  </si>
+  <si>
+    <t>πρόβατο</t>
+  </si>
+  <si>
+    <t>βάνε</t>
+  </si>
+  <si>
+    <t>αρνί</t>
+  </si>
+  <si>
+    <t>γίδα</t>
+  </si>
+  <si>
+    <t>κατσίκα</t>
+  </si>
+  <si>
+    <t>αιγίδα</t>
+  </si>
+  <si>
+    <t>έριφο</t>
+  </si>
+  <si>
+    <t>κατσίκι</t>
+  </si>
+  <si>
+    <t>χιούρε</t>
+  </si>
+  <si>
+    <t>γουρούνι</t>
+  </si>
+  <si>
+    <t>λιούκο</t>
+  </si>
+  <si>
+    <t>λύκος</t>
+  </si>
+  <si>
+    <t>φορτακά</t>
+  </si>
+  <si>
+    <t>βάτραχος</t>
+  </si>
+  <si>
+    <t>ούθι</t>
+  </si>
+  <si>
+    <t>φίδι</t>
+  </si>
+  <si>
+    <t>κ̇ομπίο</t>
+  </si>
+  <si>
+    <t>αράχνη</t>
+  </si>
+  <si>
+    <t>μούζα</t>
+  </si>
+  <si>
+    <t>μύγα</t>
+  </si>
+  <si>
+    <t>μελισσά</t>
+  </si>
+  <si>
+    <t>μέλισσα</t>
+  </si>
+  <si>
+    <t>Θ3</t>
   </si>
 </sst>
 </file>
@@ -103,9 +1501,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,8 +1608,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{026E7425-6AE1-4445-B5B5-159D1B7680D9}" name="Tabla1" displayName="Tabla1" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D4" xr:uid="{026E7425-6AE1-4445-B5B5-159D1B7680D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{026E7425-6AE1-4445-B5B5-159D1B7680D9}" name="Tabla1" displayName="Tabla1" ref="A1:D233" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D233" xr:uid="{026E7425-6AE1-4445-B5B5-159D1B7680D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D178">
+    <sortCondition ref="A1:A178"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FA2F0861-8915-4E2E-B6DC-B7DD84954D84}" name="tsakonian" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{7435C687-28E2-4315-B48B-11E352CB6356}" name="greek" dataDxfId="2"/>
@@ -484,16 +1886,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -514,13 +1916,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -528,13 +1927,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>332</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>377</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -542,15 +1941,3134 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="B135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D174" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D181" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D182" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D185" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D187" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D200" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D201" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D202" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D203" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D205" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D206" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D209" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D211" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D212" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D218" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D221" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D223" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D224" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D226" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D228" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D229" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D230" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D231" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D232" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D233" s="1">
         <v>1</v>
       </c>
     </row>

--- a/TsakonianDB/tables/main.xlsx
+++ b/TsakonianDB/tables/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\TsakonianDB\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420FBAB1-96D4-4611-B928-20446D2F7D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD11CF7-7DA0-4AE4-B36B-B1767B9B927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="476">
   <si>
     <t>tsakonian</t>
   </si>
@@ -1026,9 +1026,6 @@
     <t>άγο</t>
   </si>
   <si>
-    <t>αλογο</t>
-  </si>
-  <si>
     <t>άσου</t>
   </si>
   <si>
@@ -1261,9 +1258,6 @@
   </si>
   <si>
     <t>αχλάδι</t>
-  </si>
-  <si>
-    <t>Α6</t>
   </si>
   <si>
     <t>άντε</t>
@@ -1501,10 +1495,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1608,10 +1601,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{026E7425-6AE1-4445-B5B5-159D1B7680D9}" name="Tabla1" displayName="Tabla1" ref="A1:D233" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D233" xr:uid="{026E7425-6AE1-4445-B5B5-159D1B7680D9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D178">
-    <sortCondition ref="A1:A178"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{026E7425-6AE1-4445-B5B5-159D1B7680D9}" name="Tabla1" displayName="Tabla1" ref="A1:D232" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D232" xr:uid="{026E7425-6AE1-4445-B5B5-159D1B7680D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D232">
+    <sortCondition ref="A1:A232"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FA2F0861-8915-4E2E-B6DC-B7DD84954D84}" name="tsakonian" dataDxfId="3"/>
@@ -1886,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1927,13 +1920,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>333</v>
+        <v>372</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1941,10 +1934,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>447</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1952,13 +1948,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1966,13 +1959,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1980,13 +1973,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>363</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>364</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1994,13 +1987,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>209</v>
+        <v>433</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>434</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>230</v>
+        <v>409</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2008,13 +2001,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>458</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2022,10 +2015,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>298</v>
+        <v>351</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2033,10 +2029,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>230</v>
@@ -2047,10 +2043,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>282</v>
+        <v>210</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -2058,13 +2057,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>175</v>
+        <v>429</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>430</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>230</v>
+        <v>415</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -2072,13 +2071,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -2086,13 +2085,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>165</v>
+        <v>297</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -2100,10 +2096,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>230</v>
@@ -2114,13 +2110,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>282</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -2128,13 +2121,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>173</v>
+        <v>411</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>412</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -2142,10 +2135,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>296</v>
+        <v>176</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -2153,13 +2149,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>398</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>399</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>324</v>
+        <v>400</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -2167,10 +2163,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>324</v>
@@ -2181,10 +2177,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>251</v>
+        <v>166</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -2192,13 +2191,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>391</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -2206,13 +2205,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -2220,10 +2219,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>324</v>
@@ -2234,13 +2233,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>334</v>
+        <v>173</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>335</v>
+        <v>174</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -2248,13 +2247,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -2262,13 +2258,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>336</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>337</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -2276,13 +2272,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -2290,10 +2286,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -2301,13 +2297,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -2315,13 +2311,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -2329,10 +2325,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>324</v>
@@ -2343,13 +2339,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>413</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>324</v>
+        <v>377</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -2357,10 +2353,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>290</v>
+        <v>334</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -2368,13 +2367,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -2382,13 +2381,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>178</v>
+        <v>417</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>230</v>
+        <v>376</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -2396,13 +2395,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>89</v>
+        <v>365</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>90</v>
+        <v>366</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -2410,13 +2409,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>335</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>336</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -2424,13 +2423,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>427</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>428</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -2438,13 +2437,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>410</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>324</v>
+        <v>475</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -2452,10 +2451,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>312</v>
+        <v>232</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -2463,13 +2465,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -2477,13 +2476,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -2491,13 +2490,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>454</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>455</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -2505,13 +2504,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>230</v>
+        <v>328</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -2519,10 +2518,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>254</v>
+        <v>405</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>255</v>
+        <v>406</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -2530,10 +2532,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>324</v>
@@ -2544,13 +2546,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>215</v>
+        <v>443</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>216</v>
+        <v>444</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -2558,10 +2560,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>324</v>
@@ -2572,13 +2574,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>87</v>
+        <v>425</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>88</v>
+        <v>426</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -2586,13 +2588,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>289</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -2600,10 +2599,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>259</v>
+        <v>47</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>324</v>
@@ -2614,13 +2613,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5</v>
+        <v>457</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -2628,13 +2627,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -2642,13 +2641,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -2656,13 +2655,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -2670,13 +2669,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>243</v>
+        <v>91</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -2684,10 +2683,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>285</v>
+        <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>286</v>
+        <v>119</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -2695,10 +2697,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>324</v>
@@ -2709,13 +2711,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>367</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>368</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -2723,13 +2725,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -2737,13 +2736,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -2751,10 +2750,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>324</v>
@@ -2765,13 +2764,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -2779,10 +2778,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>230</v>
@@ -2793,13 +2792,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>115</v>
+        <v>379</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -2807,13 +2806,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>116</v>
+        <v>382</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>383</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -2821,13 +2820,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>43</v>
+        <v>402</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -2835,13 +2834,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -2849,10 +2845,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>185</v>
+        <v>384</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>186</v>
+        <v>385</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>230</v>
@@ -2863,13 +2859,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>106</v>
+        <v>381</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>107</v>
+        <v>380</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -2877,13 +2873,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -2891,13 +2887,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -2905,10 +2901,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>324</v>
@@ -2919,10 +2915,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>324</v>
@@ -2933,13 +2929,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>313</v>
+        <v>459</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>314</v>
+        <v>460</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>377</v>
+        <v>266</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -2947,13 +2943,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>343</v>
+        <v>154</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -2961,10 +2957,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>294</v>
+        <v>259</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -2972,13 +2971,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>339</v>
+        <v>4</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>340</v>
+        <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -2986,13 +2985,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>131</v>
+        <v>396</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>131</v>
+        <v>397</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -3000,13 +2999,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -3014,10 +3013,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>261</v>
+        <v>78</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -3025,10 +3027,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>253</v>
+        <v>180</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -3036,13 +3041,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -3050,13 +3055,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -3064,10 +3066,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>324</v>
@@ -3078,10 +3080,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>324</v>
@@ -3092,13 +3094,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -3106,13 +3108,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -3120,10 +3122,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>324</v>
@@ -3134,10 +3136,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>324</v>
@@ -3148,13 +3150,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -3162,10 +3164,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>230</v>
@@ -3176,10 +3178,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>324</v>
@@ -3190,10 +3192,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>324</v>
@@ -3204,10 +3206,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>324</v>
@@ -3218,10 +3220,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>309</v>
+        <v>58</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>310</v>
+        <v>57</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
@@ -3229,10 +3234,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>230</v>
@@ -3243,10 +3248,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>324</v>
@@ -3257,13 +3262,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
@@ -3271,13 +3276,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
@@ -3285,10 +3290,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>262</v>
+        <v>469</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>262</v>
+        <v>470</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -3296,13 +3304,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D104" s="1">
         <v>1</v>
@@ -3310,13 +3318,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>197</v>
+        <v>8</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
@@ -3324,10 +3332,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>307</v>
+        <v>441</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>308</v>
+        <v>442</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
@@ -3335,13 +3346,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>187</v>
+        <v>394</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>188</v>
+        <v>395</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
@@ -3349,13 +3360,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>195</v>
+        <v>437</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>196</v>
+        <v>438</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>230</v>
+        <v>352</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
@@ -3363,13 +3374,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
@@ -3377,13 +3388,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>16</v>
+        <v>451</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>17</v>
+        <v>449</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
@@ -3391,13 +3402,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>199</v>
+        <v>386</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>188</v>
+        <v>387</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>230</v>
+        <v>415</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -3405,13 +3416,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>221</v>
+        <v>422</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>222</v>
+        <v>423</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>230</v>
+        <v>424</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -3419,13 +3430,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>342</v>
+        <v>463</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>344</v>
+        <v>464</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="D113" s="1">
         <v>1</v>
@@ -3433,10 +3444,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>276</v>
+        <v>407</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>277</v>
+        <v>408</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
@@ -3444,13 +3458,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>206</v>
+        <v>342</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>207</v>
+        <v>344</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
@@ -3458,13 +3472,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="D116" s="1">
         <v>1</v>
@@ -3472,13 +3483,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>161</v>
+        <v>339</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
@@ -3486,10 +3497,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>230</v>
@@ -3500,13 +3511,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
@@ -3514,10 +3525,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>273</v>
+        <v>474</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
@@ -3525,13 +3539,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
@@ -3539,13 +3550,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>142</v>
+        <v>252</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -3553,10 +3561,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>257</v>
+        <v>236</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
@@ -3564,10 +3575,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>324</v>
@@ -3578,13 +3589,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>316</v>
+        <v>450</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
@@ -3592,13 +3603,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>189</v>
+        <v>471</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>190</v>
+        <v>472</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
@@ -3606,13 +3617,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -3620,13 +3631,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
@@ -3634,10 +3645,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>324</v>
@@ -3648,13 +3659,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
@@ -3662,13 +3673,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
@@ -3676,10 +3687,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>279</v>
+        <v>126</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -3687,13 +3701,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>349</v>
+        <v>69</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
@@ -3701,10 +3715,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>230</v>
@@ -3715,13 +3729,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
@@ -3729,10 +3743,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>299</v>
+        <v>435</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>300</v>
+        <v>436</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
@@ -3740,10 +3757,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>305</v>
+        <v>24</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>306</v>
+        <v>25</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -3751,10 +3771,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>324</v>
@@ -3765,13 +3785,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
@@ -3779,10 +3796,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>230</v>
@@ -3793,10 +3810,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>324</v>
@@ -3807,13 +3824,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
@@ -3821,13 +3838,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>150</v>
+        <v>392</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>151</v>
+        <v>393</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="D143" s="1">
         <v>1</v>
@@ -3835,10 +3852,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>230</v>
@@ -3849,13 +3866,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="D145" s="1">
         <v>1</v>
@@ -3863,10 +3877,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>230</v>
@@ -3877,10 +3891,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>230</v>
@@ -3891,13 +3905,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>134</v>
+        <v>307</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="D148" s="1">
         <v>1</v>
@@ -3905,10 +3916,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>272</v>
+        <v>445</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>275</v>
+        <v>446</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="D149" s="1">
         <v>1</v>
@@ -3916,10 +3930,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>265</v>
+        <v>188</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D150" s="1">
         <v>1</v>
@@ -3927,10 +3944,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>230</v>
@@ -3941,13 +3958,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
@@ -3955,13 +3972,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D153" s="1">
         <v>1</v>
@@ -3969,10 +3986,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>230</v>
@@ -3983,13 +4000,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D155" s="1">
         <v>1</v>
@@ -3997,13 +4014,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>59</v>
+        <v>467</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>60</v>
+        <v>468</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="D156" s="1">
         <v>1</v>
@@ -4011,13 +4028,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="D157" s="1">
         <v>1</v>
@@ -4025,13 +4042,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>359</v>
+        <v>277</v>
       </c>
       <c r="D158" s="1">
         <v>1</v>
@@ -4039,10 +4053,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>230</v>
@@ -4053,10 +4067,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>271</v>
+        <v>11</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
@@ -4064,13 +4081,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>322</v>
+        <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -4078,10 +4095,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>230</v>
@@ -4092,10 +4109,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>324</v>
@@ -4106,10 +4123,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D164" s="1">
         <v>1</v>
@@ -4117,13 +4134,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>347</v>
+        <v>223</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -4131,10 +4148,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>291</v>
+        <v>142</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>292</v>
+        <v>143</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -4142,13 +4162,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -4156,10 +4173,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>324</v>
@@ -4170,13 +4187,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>110</v>
+        <v>315</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D169" s="1">
         <v>1</v>
@@ -4184,13 +4201,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -4198,10 +4215,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>230</v>
@@ -4212,13 +4229,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -4226,13 +4243,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>28</v>
+        <v>452</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>29</v>
+        <v>453</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>324</v>
+        <v>415</v>
       </c>
       <c r="D173" s="1">
         <v>1</v>
@@ -4240,10 +4257,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>288</v>
+        <v>72</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
@@ -4251,10 +4271,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>283</v>
+        <v>144</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>284</v>
+        <v>145</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D175" s="1">
         <v>1</v>
@@ -4262,13 +4285,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D176" s="1">
         <v>1</v>
@@ -4276,13 +4299,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="D177" s="1">
         <v>1</v>
@@ -4290,13 +4310,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="D178" s="1">
         <v>1</v>
@@ -4304,13 +4324,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>363</v>
+        <v>227</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>341</v>
+        <v>230</v>
       </c>
       <c r="D179" s="1">
         <v>1</v>
@@ -4318,13 +4338,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>364</v>
+        <v>6</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>365</v>
+        <v>7</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
@@ -4332,13 +4352,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="D181" s="1">
         <v>1</v>
@@ -4346,13 +4363,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -4360,13 +4374,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -4374,13 +4388,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>356</v>
+        <v>415</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
@@ -4388,13 +4402,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="C185" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D185" s="1">
         <v>1</v>
@@ -4402,13 +4416,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>379</v>
+        <v>102</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>380</v>
+        <v>103</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D186" s="1">
         <v>1</v>
@@ -4416,13 +4430,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>382</v>
+        <v>104</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>381</v>
+        <v>105</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D187" s="1">
         <v>1</v>
@@ -4430,10 +4444,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>383</v>
+        <v>228</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>384</v>
+        <v>229</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>230</v>
@@ -4444,13 +4458,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>385</v>
+        <v>52</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>386</v>
+        <v>53</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="D189" s="1">
         <v>1</v>
@@ -4458,13 +4472,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>387</v>
+        <v>50</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>388</v>
+        <v>51</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>417</v>
+        <v>324</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -4472,13 +4486,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>389</v>
+        <v>150</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>390</v>
+        <v>151</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>417</v>
+        <v>230</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -4486,13 +4500,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>391</v>
+        <v>204</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>392</v>
+        <v>205</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
@@ -4500,13 +4514,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>393</v>
+        <v>169</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>394</v>
+        <v>170</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="D193" s="1">
         <v>1</v>
@@ -4514,13 +4528,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>395</v>
+        <v>152</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>396</v>
+        <v>153</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -4528,13 +4542,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>397</v>
+        <v>171</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>398</v>
+        <v>172</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -4542,13 +4556,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>399</v>
+        <v>134</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>401</v>
+        <v>230</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
@@ -4556,13 +4570,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>402</v>
+        <v>272</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -4570,13 +4581,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>404</v>
+        <v>265</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>417</v>
+        <v>265</v>
       </c>
       <c r="D198" s="1">
         <v>1</v>
@@ -4584,13 +4592,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>406</v>
+        <v>136</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>407</v>
+        <v>137</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>401</v>
+        <v>230</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -4598,13 +4606,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>408</v>
+        <v>138</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>409</v>
+        <v>139</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
@@ -4612,13 +4620,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>267</v>
+        <v>140</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>411</v>
+        <v>141</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>412</v>
+        <v>230</v>
       </c>
       <c r="D201" s="1">
         <v>1</v>
@@ -4626,13 +4634,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>401</v>
+        <v>266</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
@@ -4640,13 +4648,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -4654,13 +4662,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>418</v>
+        <v>129</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>419</v>
+        <v>130</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>377</v>
+        <v>230</v>
       </c>
       <c r="D204" s="1">
         <v>1</v>
@@ -4668,13 +4676,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>420</v>
+        <v>318</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>421</v>
+        <v>319</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>410</v>
+        <v>249</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -4682,13 +4690,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>422</v>
+        <v>59</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>423</v>
+        <v>60</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="D206" s="1">
         <v>1</v>
@@ -4696,13 +4704,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>425</v>
+        <v>321</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>426</v>
+        <v>359</v>
       </c>
       <c r="D207" s="1">
         <v>1</v>
@@ -4710,13 +4718,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>427</v>
+        <v>356</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>428</v>
+        <v>357</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -4724,13 +4732,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>429</v>
+        <v>158</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>430</v>
+        <v>159</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -4738,13 +4746,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>431</v>
+        <v>270</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>417</v>
+        <v>271</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -4752,13 +4757,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>433</v>
+        <v>322</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>434</v>
+        <v>323</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="D211" s="1">
         <v>1</v>
@@ -4766,13 +4771,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>435</v>
+        <v>146</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>436</v>
+        <v>147</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -4780,13 +4785,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>437</v>
+        <v>40</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>438</v>
+        <v>41</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -4794,13 +4799,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>439</v>
+        <v>280</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="D214" s="1">
         <v>1</v>
@@ -4808,13 +4810,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>442</v>
+        <v>370</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
@@ -4822,13 +4824,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>444</v>
+        <v>347</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>356</v>
+        <v>266</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -4836,13 +4838,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>266</v>
+        <v>409</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -4850,13 +4852,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="D218" s="1">
         <v>1</v>
@@ -4864,13 +4866,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -4878,13 +4877,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="D220" s="1">
         <v>1</v>
@@ -4892,13 +4891,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>453</v>
+        <v>65</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>451</v>
+        <v>66</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -4906,13 +4905,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>454</v>
+        <v>112</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>455</v>
+        <v>113</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>417</v>
+        <v>324</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -4920,13 +4919,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>456</v>
+        <v>110</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>457</v>
+        <v>111</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
@@ -4934,13 +4933,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>458</v>
+        <v>233</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>459</v>
+        <v>234</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -4948,13 +4947,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>460</v>
+        <v>202</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>459</v>
+        <v>203</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -4962,13 +4961,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>461</v>
+        <v>26</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>462</v>
+        <v>27</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -4976,13 +4975,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>463</v>
+        <v>28</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>464</v>
+        <v>29</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="D227" s="1">
         <v>1</v>
@@ -4990,13 +4989,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>465</v>
+        <v>287</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="D228" s="1">
         <v>1</v>
@@ -5004,13 +5000,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>467</v>
+        <v>283</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="D229" s="1">
         <v>1</v>
@@ -5018,13 +5011,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="D230" s="1">
         <v>1</v>
@@ -5032,13 +5025,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>471</v>
+        <v>63</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>472</v>
+        <v>64</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="D231" s="1">
         <v>1</v>
@@ -5046,29 +5039,15 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>473</v>
+        <v>330</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>474</v>
+        <v>331</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>356</v>
+        <v>249</v>
       </c>
       <c r="D232" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D233" s="1">
         <v>1</v>
       </c>
     </row>

--- a/TsakonianDB/tables/main.xlsx
+++ b/TsakonianDB/tables/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\TsakonianDB\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF635D2E-200F-470E-BCAA-EDA7169DA726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0D0F38-07C5-431C-8BD2-FCAF5654CB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16455" yWindow="0" windowWidth="12450" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="847">
   <si>
     <t>tsakonian</t>
   </si>
@@ -1006,9 +1006,6 @@
     <t>κάτω</t>
   </si>
   <si>
-    <t>κατσίνου</t>
-  </si>
-  <si>
     <t>δαγκώνω</t>
   </si>
   <si>
@@ -1897,9 +1894,6 @@
     <t>και</t>
   </si>
   <si>
-    <t>τσαιρέ</t>
-  </si>
-  <si>
     <t>καιρός</t>
   </si>
   <si>
@@ -2138,13 +2132,442 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>για</t>
+  </si>
+  <si>
+    <t>δεν</t>
+  </si>
+  <si>
+    <t>τι</t>
+  </si>
+  <si>
+    <t>τσι</t>
+  </si>
+  <si>
+    <t>από</t>
+  </si>
+  <si>
+    <t>τσ̇αι</t>
+  </si>
+  <si>
+    <t>δίπα</t>
+  </si>
+  <si>
+    <t>δίπλα</t>
+  </si>
+  <si>
+    <t>νάμου</t>
+  </si>
+  <si>
+    <t>μας</t>
+  </si>
+  <si>
+    <t>να</t>
+  </si>
+  <si>
+    <t>όταν</t>
+  </si>
+  <si>
+    <t>όμως</t>
+  </si>
+  <si>
+    <t>σι</t>
+  </si>
+  <si>
+    <t>μη</t>
+  </si>
+  <si>
+    <t>μην</t>
+  </si>
+  <si>
+    <t>λίγο</t>
+  </si>
+  <si>
+    <t>γιάγκεινι</t>
+  </si>
+  <si>
+    <t>γι'αυτό</t>
+  </si>
+  <si>
+    <t>πιο</t>
+  </si>
+  <si>
+    <t>πάλι</t>
+  </si>
+  <si>
+    <t>σαν</t>
+  </si>
+  <si>
+    <t>πού</t>
+  </si>
+  <si>
+    <t>πως</t>
+  </si>
+  <si>
+    <t>ενίου</t>
+  </si>
+  <si>
+    <t>εμένα</t>
+  </si>
+  <si>
+    <t>ενείνανε</t>
+  </si>
+  <si>
+    <t>εμάς</t>
+  </si>
+  <si>
+    <t>μι</t>
+  </si>
+  <si>
+    <t>με, μου</t>
+  </si>
+  <si>
+    <t>ετίου</t>
+  </si>
+  <si>
+    <t>εσένα</t>
+  </si>
+  <si>
+    <t>ντι</t>
+  </si>
+  <si>
+    <t>σου</t>
+  </si>
+  <si>
+    <t>νιούμου</t>
+  </si>
+  <si>
+    <t>σας</t>
+  </si>
+  <si>
+    <t>νι</t>
+  </si>
+  <si>
+    <t>τον, την, το, του, της, του</t>
+  </si>
+  <si>
+    <t>τους, τις, τα</t>
+  </si>
+  <si>
+    <t>εδάρι</t>
+  </si>
+  <si>
+    <t>θα</t>
+  </si>
+  <si>
+    <t>κιά</t>
+  </si>
+  <si>
+    <t>σε</t>
+  </si>
+  <si>
+    <t>επειδή</t>
+  </si>
+  <si>
+    <t>πρωτεύουσα</t>
+  </si>
+  <si>
+    <t>αστραπά</t>
+  </si>
+  <si>
+    <t>αστραπή</t>
+  </si>
+  <si>
+    <t>γιορτά</t>
+  </si>
+  <si>
+    <t>γιορτή</t>
+  </si>
+  <si>
+    <t>αμέρα</t>
+  </si>
+  <si>
+    <t>ημέρα</t>
+  </si>
+  <si>
+    <t>καθρέφτα</t>
+  </si>
+  <si>
+    <t>καθρέφτης</t>
+  </si>
+  <si>
+    <t>κ̇ωατσ̌ία</t>
+  </si>
+  <si>
+    <t>κολλητσίδα</t>
+  </si>
+  <si>
+    <t>αμοσκά</t>
+  </si>
+  <si>
+    <t>μασκάλη</t>
+  </si>
+  <si>
+    <t>μήτηρ</t>
+  </si>
+  <si>
+    <t>αναραϊδα</t>
+  </si>
+  <si>
+    <t>νηρηίδα</t>
+  </si>
+  <si>
+    <t>απάμα</t>
+  </si>
+  <si>
+    <t>παλάμη</t>
+  </si>
+  <si>
+    <t>κ̇ωάκα</t>
+  </si>
+  <si>
+    <t>σκώληκας</t>
+  </si>
+  <si>
+    <t>βδέλλα</t>
+  </si>
+  <si>
+    <t>αβδέα</t>
+  </si>
+  <si>
+    <t>αβλίτου</t>
+  </si>
+  <si>
+    <t>βλίτα</t>
+  </si>
+  <si>
+    <t>ράθυμος</t>
+  </si>
+  <si>
+    <t>αράθυμο</t>
+  </si>
+  <si>
+    <t>αφανέ</t>
+  </si>
+  <si>
+    <t>φανός</t>
+  </si>
+  <si>
+    <t>αψειαίωου</t>
+  </si>
+  <si>
+    <t>ψηλώνω</t>
+  </si>
+  <si>
+    <t>άβυσσος</t>
+  </si>
+  <si>
+    <t>άφυσσε</t>
+  </si>
+  <si>
+    <t>βίος</t>
+  </si>
+  <si>
+    <t>δίε</t>
+  </si>
+  <si>
+    <t>κουιδί</t>
+  </si>
+  <si>
+    <t>κλουβί</t>
+  </si>
+  <si>
+    <t>ροδίθι</t>
+  </si>
+  <si>
+    <t>ρεβίθι</t>
+  </si>
+  <si>
+    <t>άντζελε</t>
+  </si>
+  <si>
+    <t>άγγελος</t>
+  </si>
+  <si>
+    <t>ατζίναρε</t>
+  </si>
+  <si>
+    <t>αντζίσ̌ι</t>
+  </si>
+  <si>
+    <t>αγκίστρι</t>
+  </si>
+  <si>
+    <t>βαντζέλιε</t>
+  </si>
+  <si>
+    <t>ευαγγέλιο</t>
+  </si>
+  <si>
+    <t>ράτσ̇ι</t>
+  </si>
+  <si>
+    <t>ρυάκι</t>
+  </si>
+  <si>
+    <t>κ̇άρα</t>
+  </si>
+  <si>
+    <t>φωτιά</t>
+  </si>
+  <si>
+    <t>κ̇ουλε</t>
+  </si>
+  <si>
+    <t>αγκάθι</t>
+  </si>
+  <si>
+    <t>π̇ούρε</t>
+  </si>
+  <si>
+    <t>σπυρί</t>
+  </si>
+  <si>
+    <t>π̇άντι</t>
+  </si>
+  <si>
+    <t>σπάρτο</t>
+  </si>
+  <si>
+    <t>απ̇άρα</t>
+  </si>
+  <si>
+    <t>δουλ̣εία</t>
+  </si>
+  <si>
+    <t>δουλειά</t>
+  </si>
+  <si>
+    <t>αλ̣ίου</t>
+  </si>
+  <si>
+    <t>αλλιώς</t>
+  </si>
+  <si>
+    <t>τσ̌ούα</t>
+  </si>
+  <si>
+    <t>βελανιδιά</t>
+  </si>
+  <si>
+    <t>τσ̇ήπο</t>
+  </si>
+  <si>
+    <t>κήπος</t>
+  </si>
+  <si>
+    <t>τσ̇αιρέ</t>
+  </si>
+  <si>
+    <t>κατσ̇ίνου</t>
+  </si>
+  <si>
+    <t>τσία</t>
+  </si>
+  <si>
+    <t>τσερέ</t>
+  </si>
+  <si>
+    <t>ξερός</t>
+  </si>
+  <si>
+    <t>ζαλέχου</t>
+  </si>
+  <si>
+    <t>διαλέγω</t>
+  </si>
+  <si>
+    <t>γκήχου</t>
+  </si>
+  <si>
+    <t>μπήγω</t>
+  </si>
+  <si>
+    <t>κυλίχου</t>
+  </si>
+  <si>
+    <t>τυλίγω</t>
+  </si>
+  <si>
+    <t>εμπιά</t>
+  </si>
+  <si>
+    <t>μπελάς</t>
+  </si>
+  <si>
+    <t>εμαλέ</t>
+  </si>
+  <si>
+    <t>μυαλό</t>
+  </si>
+  <si>
+    <t>εγκοφό</t>
+  </si>
+  <si>
+    <t>γοφός</t>
+  </si>
+  <si>
+    <t>έχκιουπο</t>
+  </si>
+  <si>
+    <t>χτύπος</t>
+  </si>
+  <si>
+    <t>δοχύρι</t>
+  </si>
+  <si>
+    <t>γεφύρι</t>
+  </si>
+  <si>
+    <t>ολπίζου</t>
+  </si>
+  <si>
+    <t>ελπίζω</t>
+  </si>
+  <si>
+    <t>όγιουμα</t>
+  </si>
+  <si>
+    <t>ένδυμα</t>
+  </si>
+  <si>
+    <t>οχτρέ</t>
+  </si>
+  <si>
+    <t>εχθρός</t>
+  </si>
+  <si>
+    <t>σ̌ονίχου</t>
+  </si>
+  <si>
+    <t>θερμίζω</t>
+  </si>
+  <si>
+    <t>σ̌οβλέ</t>
+  </si>
+  <si>
+    <t>στρεβλός</t>
+  </si>
+  <si>
+    <t>αβγακίχου</t>
+  </si>
+  <si>
+    <t>αβγατίζω</t>
+  </si>
+  <si>
+    <t>γκρενίχου</t>
+  </si>
+  <si>
+    <t>γκρεμίζω</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2163,6 +2586,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2199,56 +2628,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2301,10 +2692,49 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2321,13 +2751,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}" name="Tabla1" displayName="Tabla1" ref="A1:D351" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:D351" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}" name="Tabla1" displayName="Tabla1" ref="A1:D441" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="A1:D441" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B6C9486A-BB8C-465C-BC14-66C80BC94B36}" name="tsakonian" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1DC6BB10-69CE-43E8-BA20-E10761E36A3A}" name="greek" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7AED8A60-951D-4646-8BB1-896986595D84}" name="type" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9C0FDB4D-97ED-441B-A84D-3F6FDDFED67A}" name="source" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B6C9486A-BB8C-465C-BC14-66C80BC94B36}" name="tsakonian" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1DC6BB10-69CE-43E8-BA20-E10761E36A3A}" name="greek" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{7AED8A60-951D-4646-8BB1-896986595D84}" name="type" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9C0FDB4D-97ED-441B-A84D-3F6FDDFED67A}" name="source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2618,10 +3048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D351"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,7 +3335,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -4824,10 +5254,10 @@
     </row>
     <row r="159" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
@@ -4838,13 +5268,13 @@
     </row>
     <row r="160" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D160" s="2">
         <v>1</v>
@@ -4852,10 +5282,10 @@
     </row>
     <row r="161" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
@@ -4866,10 +5296,10 @@
     </row>
     <row r="162" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
@@ -4880,10 +5310,10 @@
     </row>
     <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>43</v>
@@ -4894,10 +5324,10 @@
     </row>
     <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>43</v>
@@ -4908,10 +5338,10 @@
     </row>
     <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
@@ -4922,10 +5352,10 @@
     </row>
     <row r="166" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
@@ -4936,10 +5366,10 @@
     </row>
     <row r="167" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
@@ -4950,10 +5380,10 @@
     </row>
     <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
@@ -4964,10 +5394,10 @@
     </row>
     <row r="169" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
@@ -4978,7 +5408,7 @@
     </row>
     <row r="170" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>320</v>
@@ -4992,10 +5422,10 @@
     </row>
     <row r="171" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>43</v>
@@ -5006,10 +5436,10 @@
     </row>
     <row r="172" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
@@ -5020,13 +5450,13 @@
     </row>
     <row r="173" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="D173" s="2">
         <v>1</v>
@@ -5034,10 +5464,10 @@
     </row>
     <row r="174" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>31</v>
@@ -5048,10 +5478,10 @@
     </row>
     <row r="175" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
@@ -5062,13 +5492,13 @@
     </row>
     <row r="176" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="D176" s="2">
         <v>1</v>
@@ -5076,10 +5506,10 @@
     </row>
     <row r="177" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
@@ -5090,10 +5520,10 @@
     </row>
     <row r="178" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
@@ -5104,10 +5534,10 @@
     </row>
     <row r="179" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
@@ -5118,10 +5548,10 @@
     </row>
     <row r="180" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>15</v>
@@ -5132,10 +5562,10 @@
     </row>
     <row r="181" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>15</v>
@@ -5146,10 +5576,10 @@
     </row>
     <row r="182" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
@@ -5160,10 +5590,10 @@
     </row>
     <row r="183" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>24</v>
@@ -5174,10 +5604,10 @@
     </row>
     <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>164</v>
@@ -5188,10 +5618,10 @@
     </row>
     <row r="185" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>15</v>
@@ -5202,10 +5632,10 @@
     </row>
     <row r="186" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>58</v>
@@ -5216,13 +5646,13 @@
     </row>
     <row r="187" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="D187" s="2">
         <v>1</v>
@@ -5230,10 +5660,10 @@
     </row>
     <row r="188" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
@@ -5244,10 +5674,10 @@
     </row>
     <row r="189" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>31</v>
@@ -5258,10 +5688,10 @@
     </row>
     <row r="190" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
@@ -5272,10 +5702,10 @@
     </row>
     <row r="191" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>34</v>
@@ -5286,13 +5716,13 @@
     </row>
     <row r="192" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="C192" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="D192" s="2">
         <v>1</v>
@@ -5300,10 +5730,10 @@
     </row>
     <row r="193" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2">
@@ -5312,13 +5742,13 @@
     </row>
     <row r="194" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="D194" s="2">
         <v>1</v>
@@ -5326,10 +5756,10 @@
     </row>
     <row r="195" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>43</v>
@@ -5340,10 +5770,10 @@
     </row>
     <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>43</v>
@@ -5354,10 +5784,10 @@
     </row>
     <row r="197" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>185</v>
@@ -5368,10 +5798,10 @@
     </row>
     <row r="198" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2">
@@ -5380,10 +5810,10 @@
     </row>
     <row r="199" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2">
@@ -5392,10 +5822,10 @@
     </row>
     <row r="200" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
@@ -5406,10 +5836,10 @@
     </row>
     <row r="201" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
@@ -5420,13 +5850,13 @@
     </row>
     <row r="202" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="D202" s="2">
         <v>1</v>
@@ -5434,10 +5864,10 @@
     </row>
     <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
@@ -5448,10 +5878,10 @@
     </row>
     <row r="204" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>31</v>
@@ -5462,10 +5892,10 @@
     </row>
     <row r="205" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>15</v>
@@ -5476,10 +5906,10 @@
     </row>
     <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
@@ -5490,10 +5920,10 @@
     </row>
     <row r="207" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
@@ -5504,10 +5934,10 @@
     </row>
     <row r="208" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
@@ -5518,10 +5948,10 @@
     </row>
     <row r="209" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
@@ -5532,10 +5962,10 @@
     </row>
     <row r="210" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
@@ -5546,10 +5976,10 @@
     </row>
     <row r="211" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
@@ -5560,10 +5990,10 @@
     </row>
     <row r="212" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
@@ -5574,10 +6004,10 @@
     </row>
     <row r="213" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
@@ -5588,10 +6018,10 @@
     </row>
     <row r="214" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>43</v>
@@ -5602,10 +6032,10 @@
     </row>
     <row r="215" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
@@ -5616,10 +6046,10 @@
     </row>
     <row r="216" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>34</v>
@@ -5630,10 +6060,10 @@
     </row>
     <row r="217" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
@@ -5644,10 +6074,10 @@
     </row>
     <row r="218" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
@@ -5658,10 +6088,10 @@
     </row>
     <row r="219" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
@@ -5672,10 +6102,10 @@
     </row>
     <row r="220" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
@@ -5686,10 +6116,10 @@
     </row>
     <row r="221" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
@@ -5700,10 +6130,10 @@
     </row>
     <row r="222" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2">
@@ -5712,10 +6142,10 @@
     </row>
     <row r="223" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>43</v>
@@ -5726,10 +6156,10 @@
     </row>
     <row r="224" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
@@ -5740,10 +6170,10 @@
     </row>
     <row r="225" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
@@ -5754,13 +6184,13 @@
     </row>
     <row r="226" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="C226" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="D226" s="2">
         <v>1</v>
@@ -5768,10 +6198,10 @@
     </row>
     <row r="227" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>15</v>
@@ -5782,10 +6212,10 @@
     </row>
     <row r="228" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>43</v>
@@ -5796,10 +6226,10 @@
     </row>
     <row r="229" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
@@ -5810,10 +6240,10 @@
     </row>
     <row r="230" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
@@ -5824,10 +6254,10 @@
     </row>
     <row r="231" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
@@ -5838,10 +6268,10 @@
     </row>
     <row r="232" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -5852,10 +6282,10 @@
     </row>
     <row r="233" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
@@ -5866,10 +6296,10 @@
     </row>
     <row r="234" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2">
@@ -5878,10 +6308,10 @@
     </row>
     <row r="235" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>43</v>
@@ -5892,10 +6322,10 @@
     </row>
     <row r="236" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>43</v>
@@ -5906,10 +6336,10 @@
     </row>
     <row r="237" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2">
@@ -5918,10 +6348,10 @@
     </row>
     <row r="238" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>82</v>
@@ -5932,10 +6362,10 @@
     </row>
     <row r="239" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>43</v>
@@ -5946,7 +6376,7 @@
     </row>
     <row r="240" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>138</v>
@@ -5960,10 +6390,10 @@
     </row>
     <row r="241" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>43</v>
@@ -5974,10 +6404,10 @@
     </row>
     <row r="242" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
@@ -5988,10 +6418,10 @@
     </row>
     <row r="243" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
@@ -6002,10 +6432,10 @@
     </row>
     <row r="244" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>43</v>
@@ -6016,10 +6446,10 @@
     </row>
     <row r="245" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>43</v>
@@ -6030,10 +6460,10 @@
     </row>
     <row r="246" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>24</v>
@@ -6044,10 +6474,10 @@
     </row>
     <row r="247" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
@@ -6058,10 +6488,10 @@
     </row>
     <row r="248" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>173</v>
@@ -6072,10 +6502,10 @@
     </row>
     <row r="249" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
@@ -6086,10 +6516,10 @@
     </row>
     <row r="250" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2">
@@ -6098,10 +6528,10 @@
     </row>
     <row r="251" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>43</v>
@@ -6112,10 +6542,10 @@
     </row>
     <row r="252" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
@@ -6126,10 +6556,10 @@
     </row>
     <row r="253" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>43</v>
@@ -6140,10 +6570,10 @@
     </row>
     <row r="254" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
@@ -6154,10 +6584,10 @@
     </row>
     <row r="255" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
@@ -6168,10 +6598,10 @@
     </row>
     <row r="256" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>43</v>
@@ -6182,10 +6612,10 @@
     </row>
     <row r="257" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
@@ -6196,10 +6626,10 @@
     </row>
     <row r="258" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2">
@@ -6208,10 +6638,10 @@
     </row>
     <row r="259" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>43</v>
@@ -6222,10 +6652,10 @@
     </row>
     <row r="260" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>43</v>
@@ -6236,10 +6666,10 @@
     </row>
     <row r="261" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2">
@@ -6248,10 +6678,10 @@
     </row>
     <row r="262" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
@@ -6262,10 +6692,10 @@
     </row>
     <row r="263" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
@@ -6276,10 +6706,10 @@
     </row>
     <row r="264" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
@@ -6290,10 +6720,10 @@
     </row>
     <row r="265" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
@@ -6304,13 +6734,13 @@
     </row>
     <row r="266" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="C266" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="D266" s="2">
         <v>1</v>
@@ -6318,10 +6748,10 @@
     </row>
     <row r="267" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
@@ -6332,10 +6762,10 @@
     </row>
     <row r="268" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>43</v>
@@ -6346,10 +6776,10 @@
     </row>
     <row r="269" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>43</v>
@@ -6360,10 +6790,10 @@
     </row>
     <row r="270" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>159</v>
@@ -6374,10 +6804,10 @@
     </row>
     <row r="271" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
@@ -6388,10 +6818,10 @@
     </row>
     <row r="272" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>58</v>
@@ -6402,10 +6832,10 @@
     </row>
     <row r="273" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
@@ -6416,10 +6846,10 @@
     </row>
     <row r="274" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
@@ -6430,10 +6860,10 @@
     </row>
     <row r="275" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>43</v>
@@ -6444,10 +6874,10 @@
     </row>
     <row r="276" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>43</v>
@@ -6458,10 +6888,10 @@
     </row>
     <row r="277" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2">
@@ -6470,10 +6900,10 @@
     </row>
     <row r="278" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
@@ -6484,13 +6914,13 @@
     </row>
     <row r="279" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>565</v>
-      </c>
       <c r="C279" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D279" s="2">
         <v>1</v>
@@ -6498,10 +6928,10 @@
     </row>
     <row r="280" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>43</v>
@@ -6512,10 +6942,10 @@
     </row>
     <row r="281" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>159</v>
@@ -6526,10 +6956,10 @@
     </row>
     <row r="282" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2">
@@ -6538,10 +6968,10 @@
     </row>
     <row r="283" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="2">
@@ -6550,10 +6980,10 @@
     </row>
     <row r="284" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
@@ -6564,10 +6994,10 @@
     </row>
     <row r="285" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>58</v>
@@ -6578,10 +7008,10 @@
     </row>
     <row r="286" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
@@ -6592,10 +7022,10 @@
     </row>
     <row r="287" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>58</v>
@@ -6606,10 +7036,10 @@
     </row>
     <row r="288" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>58</v>
@@ -6620,10 +7050,10 @@
     </row>
     <row r="289" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
@@ -6634,10 +7064,10 @@
     </row>
     <row r="290" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
@@ -6648,10 +7078,10 @@
     </row>
     <row r="291" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
@@ -6662,10 +7092,10 @@
     </row>
     <row r="292" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
@@ -6676,10 +7106,10 @@
     </row>
     <row r="293" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>43</v>
@@ -6690,10 +7120,10 @@
     </row>
     <row r="294" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
@@ -6704,10 +7134,10 @@
     </row>
     <row r="295" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
@@ -6718,10 +7148,10 @@
     </row>
     <row r="296" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>43</v>
@@ -6732,10 +7162,10 @@
     </row>
     <row r="297" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>43</v>
@@ -6746,10 +7176,10 @@
     </row>
     <row r="298" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>43</v>
@@ -6760,10 +7190,10 @@
     </row>
     <row r="299" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>43</v>
@@ -6774,10 +7204,10 @@
     </row>
     <row r="300" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>43</v>
@@ -6788,10 +7218,10 @@
     </row>
     <row r="301" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>43</v>
@@ -6802,10 +7232,10 @@
     </row>
     <row r="302" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2">
@@ -6814,10 +7244,10 @@
     </row>
     <row r="303" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="2">
@@ -6826,10 +7256,10 @@
     </row>
     <row r="304" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>613</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>43</v>
@@ -6840,10 +7270,10 @@
     </row>
     <row r="305" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>43</v>
@@ -6854,10 +7284,10 @@
     </row>
     <row r="306" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>43</v>
@@ -6868,10 +7298,10 @@
     </row>
     <row r="307" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
@@ -6882,10 +7312,10 @@
     </row>
     <row r="308" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>31</v>
@@ -6896,13 +7326,13 @@
     </row>
     <row r="309" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D309" s="2">
         <v>1</v>
@@ -6910,10 +7340,10 @@
     </row>
     <row r="310" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>43</v>
@@ -6924,13 +7354,13 @@
     </row>
     <row r="311" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D311" s="2">
         <v>1</v>
@@ -6938,10 +7368,10 @@
     </row>
     <row r="312" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
@@ -6952,10 +7382,10 @@
     </row>
     <row r="313" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
@@ -6966,13 +7396,13 @@
     </row>
     <row r="314" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="D314" s="2">
         <v>1</v>
@@ -6980,13 +7410,13 @@
     </row>
     <row r="315" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D315" s="2">
         <v>1</v>
@@ -6994,10 +7424,10 @@
     </row>
     <row r="316" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>43</v>
@@ -7008,10 +7438,10 @@
     </row>
     <row r="317" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="2">
@@ -7020,10 +7450,10 @@
     </row>
     <row r="318" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
@@ -7034,10 +7464,10 @@
     </row>
     <row r="319" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
@@ -7048,10 +7478,10 @@
     </row>
     <row r="320" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
@@ -7062,10 +7492,10 @@
     </row>
     <row r="321" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>43</v>
@@ -7076,10 +7506,10 @@
     </row>
     <row r="322" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
@@ -7090,10 +7520,10 @@
     </row>
     <row r="323" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2">
@@ -7102,13 +7532,13 @@
     </row>
     <row r="324" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D324" s="2">
         <v>1</v>
@@ -7116,10 +7546,10 @@
     </row>
     <row r="325" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
@@ -7130,10 +7560,10 @@
     </row>
     <row r="326" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>31</v>
@@ -7144,10 +7574,10 @@
     </row>
     <row r="327" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>34</v>
@@ -7158,10 +7588,10 @@
     </row>
     <row r="328" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>15</v>
@@ -7172,10 +7602,10 @@
     </row>
     <row r="329" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2">
@@ -7184,10 +7614,10 @@
     </row>
     <row r="330" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
@@ -7198,10 +7628,10 @@
     </row>
     <row r="331" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
@@ -7212,10 +7642,10 @@
     </row>
     <row r="332" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>173</v>
@@ -7226,10 +7656,10 @@
     </row>
     <row r="333" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
@@ -7240,10 +7670,10 @@
     </row>
     <row r="334" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
@@ -7254,10 +7684,10 @@
     </row>
     <row r="335" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
@@ -7268,10 +7698,10 @@
     </row>
     <row r="336" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
@@ -7282,10 +7712,10 @@
     </row>
     <row r="337" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
@@ -7296,10 +7726,10 @@
     </row>
     <row r="338" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
@@ -7310,10 +7740,10 @@
     </row>
     <row r="339" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
@@ -7324,10 +7754,10 @@
     </row>
     <row r="340" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>159</v>
@@ -7338,10 +7768,10 @@
     </row>
     <row r="341" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
@@ -7352,7 +7782,7 @@
     </row>
     <row r="342" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>327</v>
@@ -7366,10 +7796,10 @@
     </row>
     <row r="343" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
@@ -7380,10 +7810,10 @@
     </row>
     <row r="344" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>8</v>
@@ -7394,10 +7824,10 @@
     </row>
     <row r="345" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2">
@@ -7406,10 +7836,10 @@
     </row>
     <row r="346" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2">
@@ -7418,10 +7848,10 @@
     </row>
     <row r="347" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>31</v>
@@ -7432,10 +7862,10 @@
     </row>
     <row r="348" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>8</v>
@@ -7446,10 +7876,10 @@
     </row>
     <row r="349" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>8</v>
@@ -7460,10 +7890,10 @@
     </row>
     <row r="350" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>8</v>
@@ -7474,17 +7904,1075 @@
     </row>
     <row r="351" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B351" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D351" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A352" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="C351" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D351" s="2">
-        <v>1</v>
-      </c>
+      <c r="B352" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D352" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D353" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D354" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A355" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D355" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A356" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D356" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D357" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D358" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A359" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D359" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D360" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A361" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D361" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A362" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D362" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A363" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D363" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A364" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D364" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A365" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D365" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A366" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D366" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A367" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D367" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A368" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D368" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A369" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D369" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D370" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D371" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A372" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D372" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A373" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D373" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A374" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D374" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A375" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D375" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A376" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D376" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A377" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D377" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A378" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D378" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A379" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D379" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D380" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A381" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D381" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A382" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D382" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A383" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D383" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A384" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D384" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A385" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D385" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A386" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D386" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A387" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D387" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A388" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D388" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D389" s="3"/>
+    </row>
+    <row r="390" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A390" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D390" s="3"/>
+    </row>
+    <row r="391" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A391" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C391" s="3"/>
+      <c r="D391" s="3"/>
+    </row>
+    <row r="392" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A392" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D392" s="3"/>
+    </row>
+    <row r="393" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A393" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D393" s="3"/>
+    </row>
+    <row r="394" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A394" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C394" s="3"/>
+      <c r="D394" s="3"/>
+    </row>
+    <row r="395" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A395" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C395" s="3"/>
+      <c r="D395" s="3"/>
+    </row>
+    <row r="396" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A396" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C396" s="3"/>
+      <c r="D396" s="3"/>
+    </row>
+    <row r="397" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A397" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C397" s="3"/>
+      <c r="D397" s="3"/>
+    </row>
+    <row r="398" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A398" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C398" s="3"/>
+      <c r="D398" s="3"/>
+    </row>
+    <row r="399" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A399" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C399" s="3"/>
+      <c r="D399" s="3"/>
+    </row>
+    <row r="400" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A400" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C400" s="3"/>
+      <c r="D400" s="3"/>
+    </row>
+    <row r="401" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A401" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C401" s="3"/>
+      <c r="D401" s="3"/>
+    </row>
+    <row r="402" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C402" s="3"/>
+      <c r="D402" s="3"/>
+    </row>
+    <row r="403" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A403" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C403" s="3"/>
+      <c r="D403" s="3"/>
+    </row>
+    <row r="404" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A404" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C404" s="3"/>
+      <c r="D404" s="3"/>
+    </row>
+    <row r="405" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C405" s="3"/>
+      <c r="D405" s="3"/>
+    </row>
+    <row r="406" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C406" s="3"/>
+      <c r="D406" s="3"/>
+    </row>
+    <row r="407" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A407" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C407" s="3"/>
+      <c r="D407" s="3"/>
+    </row>
+    <row r="408" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A408" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C408" s="3"/>
+      <c r="D408" s="3"/>
+    </row>
+    <row r="409" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A409" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C409" s="3"/>
+      <c r="D409" s="3"/>
+    </row>
+    <row r="410" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A410" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C410" s="3"/>
+      <c r="D410" s="3"/>
+    </row>
+    <row r="411" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A411" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C411" s="3"/>
+      <c r="D411" s="3"/>
+    </row>
+    <row r="412" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A412" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C412" s="3"/>
+      <c r="D412" s="3"/>
+    </row>
+    <row r="413" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A413" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C413" s="3"/>
+      <c r="D413" s="3"/>
+    </row>
+    <row r="414" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A414" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C414" s="3"/>
+      <c r="D414" s="3"/>
+    </row>
+    <row r="415" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A415" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C415" s="3"/>
+      <c r="D415" s="3"/>
+    </row>
+    <row r="416" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A416" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C416" s="3"/>
+      <c r="D416" s="3"/>
+    </row>
+    <row r="417" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A417" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C417" s="3"/>
+      <c r="D417" s="3"/>
+    </row>
+    <row r="418" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A418" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C418" s="3"/>
+      <c r="D418" s="3"/>
+    </row>
+    <row r="419" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A419" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C419" s="3"/>
+      <c r="D419" s="3"/>
+    </row>
+    <row r="420" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A420" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C420" s="3"/>
+      <c r="D420" s="3"/>
+    </row>
+    <row r="421" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C421" s="3"/>
+      <c r="D421" s="3"/>
+    </row>
+    <row r="422" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D422" s="3"/>
+    </row>
+    <row r="423" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C423" s="3"/>
+      <c r="D423" s="3"/>
+    </row>
+    <row r="424" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C424" s="3"/>
+      <c r="D424" s="3"/>
+    </row>
+    <row r="425" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A425" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C425" s="3"/>
+      <c r="D425" s="3"/>
+    </row>
+    <row r="426" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C426" s="3"/>
+      <c r="D426" s="3"/>
+    </row>
+    <row r="427" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A427" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C427" s="3"/>
+      <c r="D427" s="3"/>
+    </row>
+    <row r="428" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A428" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C428" s="3"/>
+      <c r="D428" s="3"/>
+    </row>
+    <row r="429" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A429" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C429" s="3"/>
+      <c r="D429" s="3"/>
+    </row>
+    <row r="430" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A430" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C430" s="3"/>
+      <c r="D430" s="3"/>
+    </row>
+    <row r="431" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A431" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C431" s="3"/>
+      <c r="D431" s="3"/>
+    </row>
+    <row r="432" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C432" s="3"/>
+      <c r="D432" s="3"/>
+    </row>
+    <row r="433" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C433" s="3"/>
+      <c r="D433" s="3"/>
+    </row>
+    <row r="434" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C434" s="3"/>
+      <c r="D434" s="3"/>
+    </row>
+    <row r="435" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C435" s="3"/>
+      <c r="D435" s="3"/>
+    </row>
+    <row r="436" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A436" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C436" s="3"/>
+      <c r="D436" s="3"/>
+    </row>
+    <row r="437" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A437" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C437" s="3"/>
+      <c r="D437" s="3"/>
+    </row>
+    <row r="438" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A438" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C438" s="3"/>
+      <c r="D438" s="3"/>
+    </row>
+    <row r="439" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A439" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C439" s="3"/>
+      <c r="D439" s="3"/>
+    </row>
+    <row r="440" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A440" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C440" s="3"/>
+      <c r="D440" s="3"/>
+    </row>
+    <row r="441" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A441" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C441" s="3"/>
+      <c r="D441" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TsakonianDB/tables/main.xlsx
+++ b/TsakonianDB/tables/main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\TsakonianDB\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Proyectos/Personal/tsakonian-tools/TsakonianDB/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF635D2E-200F-470E-BCAA-EDA7169DA726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EF635D2E-200F-470E-BCAA-EDA7169DA726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E465F9-F05B-487A-AE1E-08DB5EBEF953}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="705">
   <si>
     <t>tsakonian</t>
   </si>
@@ -2135,9 +2135,6 @@
   </si>
   <si>
     <t>μάτι</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2223,45 +2220,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2301,10 +2259,49 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2321,13 +2318,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}" name="Tabla1" displayName="Tabla1" ref="A1:D351" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}" name="Tabla1" displayName="Tabla1" ref="A1:D351" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="A1:D351" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B6C9486A-BB8C-465C-BC14-66C80BC94B36}" name="tsakonian" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1DC6BB10-69CE-43E8-BA20-E10761E36A3A}" name="greek" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7AED8A60-951D-4646-8BB1-896986595D84}" name="type" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9C0FDB4D-97ED-441B-A84D-3F6FDDFED67A}" name="source" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B6C9486A-BB8C-465C-BC14-66C80BC94B36}" name="tsakonian" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1DC6BB10-69CE-43E8-BA20-E10761E36A3A}" name="greek" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{7AED8A60-951D-4646-8BB1-896986595D84}" name="type" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9C0FDB4D-97ED-441B-A84D-3F6FDDFED67A}" name="source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2620,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="A305" sqref="A305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,8 +2901,8 @@
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>705</v>
+      <c r="D20" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">

--- a/TsakonianDB/tables/main.xlsx
+++ b/TsakonianDB/tables/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Proyectos/Personal/tsakonian-tools/TsakonianDB/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\TsakonianDB\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EF635D2E-200F-470E-BCAA-EDA7169DA726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E465F9-F05B-487A-AE1E-08DB5EBEF953}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE34493-FF2D-49CA-BABA-ACECEBD0775C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="702">
   <si>
     <t>tsakonian</t>
   </si>
@@ -28,9 +28,6 @@
     <t>greek</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -1324,12 +1321,6 @@
     <t>μπλέγγου</t>
   </si>
   <si>
-    <t>διώχνω</t>
-  </si>
-  <si>
-    <t>μπερδεύω, μπλέκω</t>
-  </si>
-  <si>
     <t>μπορού</t>
   </si>
   <si>
@@ -1777,12 +1768,6 @@
     <t>σούνου</t>
   </si>
   <si>
-    <t>φτάνω; Σώζω</t>
-  </si>
-  <si>
-    <t>φτάνω, σώζω</t>
-  </si>
-  <si>
     <t>σουσκούμενε</t>
   </si>
   <si>
@@ -1888,9 +1873,6 @@
     <t>ξάδελφος</t>
   </si>
   <si>
-    <t>ξάδελφη</t>
-  </si>
-  <si>
     <t>τσαι</t>
   </si>
   <si>
@@ -2135,6 +2117,15 @@
   </si>
   <si>
     <t>μάτι</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>μπερδεύω, μπλέκω; διώχνω</t>
+  </si>
+  <si>
+    <t>φτάνω; σώζω</t>
   </si>
 </sst>
 </file>
@@ -2320,10 +2311,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}" name="Tabla1" displayName="Tabla1" ref="A1:D351" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="A1:D351" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D351">
+    <sortCondition ref="A1:A351"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B6C9486A-BB8C-465C-BC14-66C80BC94B36}" name="tsakonian" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{1DC6BB10-69CE-43E8-BA20-E10761E36A3A}" name="greek" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{7AED8A60-951D-4646-8BB1-896986595D84}" name="type" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7AED8A60-951D-4646-8BB1-896986595D84}" name="paradigm" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{9C0FDB4D-97ED-441B-A84D-3F6FDDFED67A}" name="source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2617,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="A305" sqref="A305"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="A348" sqref="A348:D348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,18 +2631,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
@@ -2657,13 +2651,13 @@
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2671,13 +2665,13 @@
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2685,13 +2679,13 @@
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2699,13 +2693,13 @@
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2713,13 +2707,13 @@
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2727,13 +2721,13 @@
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -2741,13 +2735,13 @@
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -2755,13 +2749,13 @@
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2769,10 +2763,10 @@
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -2781,13 +2775,13 @@
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -2795,13 +2789,13 @@
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -2809,13 +2803,13 @@
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -2823,13 +2817,13 @@
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -2837,13 +2831,13 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -2851,13 +2845,13 @@
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2865,13 +2859,13 @@
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2879,13 +2873,13 @@
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2893,13 +2887,13 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2907,13 +2901,13 @@
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2921,13 +2915,13 @@
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2935,13 +2929,13 @@
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -2949,13 +2943,13 @@
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -2963,13 +2957,13 @@
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -2977,13 +2971,13 @@
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -2991,13 +2985,13 @@
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
@@ -3005,13 +2999,13 @@
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -3019,10 +3013,10 @@
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
@@ -3031,13 +3025,13 @@
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -3045,13 +3039,13 @@
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -3059,13 +3053,13 @@
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -3073,13 +3067,13 @@
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2">
         <v>2</v>
@@ -3087,13 +3081,13 @@
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -3101,13 +3095,13 @@
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -3115,10 +3109,10 @@
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
@@ -3127,13 +3121,13 @@
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -3141,13 +3135,13 @@
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -3155,13 +3149,13 @@
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -3169,13 +3163,13 @@
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -3183,13 +3177,13 @@
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
@@ -3197,13 +3191,13 @@
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -3211,13 +3205,13 @@
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -3225,13 +3219,13 @@
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -3239,13 +3233,13 @@
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -3253,13 +3247,13 @@
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -3267,13 +3261,13 @@
     </row>
     <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -3281,13 +3275,13 @@
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -3295,13 +3289,13 @@
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
@@ -3309,13 +3303,13 @@
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -3323,13 +3317,13 @@
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -3337,13 +3331,13 @@
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -3351,13 +3345,13 @@
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" s="2">
         <v>2</v>
@@ -3365,13 +3359,13 @@
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
@@ -3379,13 +3373,13 @@
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" s="2">
         <v>2</v>
@@ -3393,13 +3387,13 @@
     </row>
     <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" s="2">
         <v>2</v>
@@ -3407,13 +3401,13 @@
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
@@ -3421,10 +3415,10 @@
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2">
@@ -3433,13 +3427,13 @@
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
@@ -3447,13 +3441,13 @@
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" s="2">
         <v>2</v>
@@ -3461,13 +3455,13 @@
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="2">
         <v>1</v>
@@ -3475,13 +3469,13 @@
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -3489,13 +3483,13 @@
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -3503,10 +3497,10 @@
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2">
@@ -3515,13 +3509,13 @@
     </row>
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
@@ -3529,13 +3523,13 @@
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -3543,13 +3537,13 @@
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
@@ -3557,13 +3551,13 @@
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" s="2">
         <v>1</v>
@@ -3571,13 +3565,13 @@
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D69" s="2">
         <v>1</v>
@@ -3585,13 +3579,13 @@
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" s="2">
         <v>2</v>
@@ -3599,13 +3593,13 @@
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
@@ -3613,13 +3607,13 @@
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
@@ -3627,13 +3621,13 @@
     </row>
     <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D73" s="2">
         <v>2</v>
@@ -3641,13 +3635,13 @@
     </row>
     <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74" s="2">
         <v>1</v>
@@ -3655,13 +3649,13 @@
     </row>
     <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D75" s="2">
         <v>1</v>
@@ -3669,13 +3663,13 @@
     </row>
     <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D76" s="2">
         <v>2</v>
@@ -3683,13 +3677,13 @@
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D77" s="2">
         <v>1</v>
@@ -3697,13 +3691,13 @@
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>1</v>
@@ -3711,13 +3705,13 @@
     </row>
     <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" s="2">
         <v>2</v>
@@ -3725,13 +3719,13 @@
     </row>
     <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80" s="2">
         <v>2</v>
@@ -3739,13 +3733,13 @@
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
@@ -3753,13 +3747,13 @@
     </row>
     <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" s="2">
         <v>2</v>
@@ -3767,13 +3761,13 @@
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D83" s="2">
         <v>1</v>
@@ -3781,13 +3775,13 @@
     </row>
     <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
@@ -3795,13 +3789,13 @@
     </row>
     <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
@@ -3809,13 +3803,13 @@
     </row>
     <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
@@ -3823,13 +3817,13 @@
     </row>
     <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D87" s="2">
         <v>1</v>
@@ -3837,10 +3831,10 @@
     </row>
     <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2">
@@ -3849,13 +3843,13 @@
     </row>
     <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89" s="2">
         <v>2</v>
@@ -3863,13 +3857,13 @@
     </row>
     <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D90" s="2">
         <v>2</v>
@@ -3877,13 +3871,13 @@
     </row>
     <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
@@ -3891,13 +3885,13 @@
     </row>
     <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
@@ -3905,13 +3899,13 @@
     </row>
     <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D93" s="2">
         <v>2</v>
@@ -3919,13 +3913,13 @@
     </row>
     <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
@@ -3933,13 +3927,13 @@
     </row>
     <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D95" s="2">
         <v>2</v>
@@ -3947,13 +3941,13 @@
     </row>
     <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D96" s="2">
         <v>1</v>
@@ -3961,13 +3955,13 @@
     </row>
     <row r="97" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D97" s="2">
         <v>1</v>
@@ -3975,13 +3969,13 @@
     </row>
     <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D98" s="2">
         <v>1</v>
@@ -3989,13 +3983,13 @@
     </row>
     <row r="99" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99" s="2">
         <v>1</v>
@@ -4003,13 +3997,13 @@
     </row>
     <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>1</v>
@@ -4017,13 +4011,13 @@
     </row>
     <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D101" s="2">
         <v>1</v>
@@ -4031,13 +4025,13 @@
     </row>
     <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D102" s="2">
         <v>1</v>
@@ -4045,13 +4039,13 @@
     </row>
     <row r="103" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D103" s="2">
         <v>1</v>
@@ -4059,13 +4053,13 @@
     </row>
     <row r="104" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D104" s="2">
         <v>1</v>
@@ -4073,10 +4067,10 @@
     </row>
     <row r="105" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2">
@@ -4085,13 +4079,13 @@
     </row>
     <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D106" s="2">
         <v>1</v>
@@ -4099,13 +4093,13 @@
     </row>
     <row r="107" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" s="2">
         <v>1</v>
@@ -4113,13 +4107,13 @@
     </row>
     <row r="108" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D108" s="2">
         <v>1</v>
@@ -4127,13 +4121,13 @@
     </row>
     <row r="109" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D109" s="2">
         <v>1</v>
@@ -4141,13 +4135,13 @@
     </row>
     <row r="110" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D110" s="2">
         <v>1</v>
@@ -4155,13 +4149,13 @@
     </row>
     <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D111" s="2">
         <v>1</v>
@@ -4169,13 +4163,13 @@
     </row>
     <row r="112" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D112" s="2">
         <v>1</v>
@@ -4183,13 +4177,13 @@
     </row>
     <row r="113" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D113" s="2">
         <v>1</v>
@@ -4197,13 +4191,13 @@
     </row>
     <row r="114" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114" s="2">
         <v>1</v>
@@ -4211,13 +4205,13 @@
     </row>
     <row r="115" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D115" s="2">
         <v>1</v>
@@ -4225,13 +4219,13 @@
     </row>
     <row r="116" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D116" s="2">
         <v>1</v>
@@ -4239,13 +4233,13 @@
     </row>
     <row r="117" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D117" s="2">
         <v>1</v>
@@ -4253,13 +4247,13 @@
     </row>
     <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D118" s="2">
         <v>1</v>
@@ -4267,10 +4261,10 @@
     </row>
     <row r="119" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2">
@@ -4279,13 +4273,13 @@
     </row>
     <row r="120" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D120" s="2">
         <v>1</v>
@@ -4293,13 +4287,13 @@
     </row>
     <row r="121" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D121" s="2">
         <v>1</v>
@@ -4307,13 +4301,13 @@
     </row>
     <row r="122" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D122" s="2">
         <v>1</v>
@@ -4321,13 +4315,13 @@
     </row>
     <row r="123" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123" s="2">
         <v>2</v>
@@ -4335,13 +4329,13 @@
     </row>
     <row r="124" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D124" s="2">
         <v>1</v>
@@ -4349,13 +4343,13 @@
     </row>
     <row r="125" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D125" s="2">
         <v>1</v>
@@ -4363,13 +4357,13 @@
     </row>
     <row r="126" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D126" s="2">
         <v>1</v>
@@ -4377,13 +4371,13 @@
     </row>
     <row r="127" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D127" s="2">
         <v>1</v>
@@ -4391,13 +4385,13 @@
     </row>
     <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D128" s="2">
         <v>1</v>
@@ -4405,13 +4399,13 @@
     </row>
     <row r="129" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129" s="2">
         <v>1</v>
@@ -4419,10 +4413,10 @@
     </row>
     <row r="130" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2">
@@ -4431,13 +4425,13 @@
     </row>
     <row r="131" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D131" s="2">
         <v>1</v>
@@ -4445,13 +4439,13 @@
     </row>
     <row r="132" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D132" s="2">
         <v>1</v>
@@ -4459,13 +4453,13 @@
     </row>
     <row r="133" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D133" s="2">
         <v>1</v>
@@ -4473,13 +4467,13 @@
     </row>
     <row r="134" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D134" s="2">
         <v>1</v>
@@ -4487,13 +4481,13 @@
     </row>
     <row r="135" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D135" s="2">
         <v>1</v>
@@ -4501,13 +4495,13 @@
     </row>
     <row r="136" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D136" s="2">
         <v>2</v>
@@ -4515,13 +4509,13 @@
     </row>
     <row r="137" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D137" s="2">
         <v>1</v>
@@ -4529,13 +4523,13 @@
     </row>
     <row r="138" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D138" s="2">
         <v>1</v>
@@ -4543,13 +4537,13 @@
     </row>
     <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D139" s="2">
         <v>1</v>
@@ -4557,13 +4551,13 @@
     </row>
     <row r="140" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D140" s="2">
         <v>1</v>
@@ -4571,13 +4565,13 @@
     </row>
     <row r="141" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D141" s="2">
         <v>1</v>
@@ -4585,13 +4579,13 @@
     </row>
     <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="C142" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2">
         <v>1</v>
@@ -4599,13 +4593,13 @@
     </row>
     <row r="143" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D143" s="2">
         <v>1</v>
@@ -4613,13 +4607,13 @@
     </row>
     <row r="144" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144" s="2">
         <v>1</v>
@@ -4627,13 +4621,13 @@
     </row>
     <row r="145" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D145" s="2">
         <v>1</v>
@@ -4641,13 +4635,13 @@
     </row>
     <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="C146" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D146" s="2">
         <v>1</v>
@@ -4655,13 +4649,13 @@
     </row>
     <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D147" s="2">
         <v>1</v>
@@ -4669,13 +4663,13 @@
     </row>
     <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="C148" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D148" s="2">
         <v>1</v>
@@ -4683,13 +4677,13 @@
     </row>
     <row r="149" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D149" s="2">
         <v>1</v>
@@ -4697,10 +4691,10 @@
     </row>
     <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2">
@@ -4709,13 +4703,13 @@
     </row>
     <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D151" s="2">
         <v>1</v>
@@ -4723,13 +4717,13 @@
     </row>
     <row r="152" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D152" s="2">
         <v>1</v>
@@ -4737,13 +4731,13 @@
     </row>
     <row r="153" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D153" s="2">
         <v>1</v>
@@ -4751,13 +4745,13 @@
     </row>
     <row r="154" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D154" s="2">
         <v>1</v>
@@ -4765,13 +4759,13 @@
     </row>
     <row r="155" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D155" s="2">
         <v>1</v>
@@ -4779,13 +4773,13 @@
     </row>
     <row r="156" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D156" s="2">
         <v>1</v>
@@ -4793,13 +4787,13 @@
     </row>
     <row r="157" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D157" s="2">
         <v>1</v>
@@ -4807,13 +4801,13 @@
     </row>
     <row r="158" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D158" s="2">
         <v>1</v>
@@ -4821,13 +4815,13 @@
     </row>
     <row r="159" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D159" s="2">
         <v>1</v>
@@ -4835,13 +4829,13 @@
     </row>
     <row r="160" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D160" s="2">
         <v>1</v>
@@ -4849,13 +4843,13 @@
     </row>
     <row r="161" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D161" s="2">
         <v>1</v>
@@ -4863,13 +4857,13 @@
     </row>
     <row r="162" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D162" s="2">
         <v>1</v>
@@ -4877,13 +4871,13 @@
     </row>
     <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="C163" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D163" s="2">
         <v>1</v>
@@ -4891,13 +4885,13 @@
     </row>
     <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="C164" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D164" s="2">
         <v>1</v>
@@ -4905,13 +4899,13 @@
     </row>
     <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="C165" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D165" s="2">
         <v>1</v>
@@ -4919,13 +4913,13 @@
     </row>
     <row r="166" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D166" s="2">
         <v>1</v>
@@ -4933,13 +4927,13 @@
     </row>
     <row r="167" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="C167" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D167" s="2">
         <v>1</v>
@@ -4947,13 +4941,13 @@
     </row>
     <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C168" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D168" s="2">
         <v>1</v>
@@ -4961,13 +4955,13 @@
     </row>
     <row r="169" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="C169" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D169" s="2">
         <v>1</v>
@@ -4975,13 +4969,13 @@
     </row>
     <row r="170" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D170" s="2">
         <v>1</v>
@@ -4989,13 +4983,13 @@
     </row>
     <row r="171" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D171" s="2">
         <v>1</v>
@@ -5003,13 +4997,13 @@
     </row>
     <row r="172" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="C172" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D172" s="2">
         <v>1</v>
@@ -5017,13 +5011,13 @@
     </row>
     <row r="173" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="C173" s="2" t="s">
-        <v>358</v>
+        <v>30</v>
       </c>
       <c r="D173" s="2">
         <v>1</v>
@@ -5031,13 +5025,13 @@
     </row>
     <row r="174" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D174" s="2">
         <v>1</v>
@@ -5045,13 +5039,13 @@
     </row>
     <row r="175" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>8</v>
+        <v>362</v>
       </c>
       <c r="D175" s="2">
         <v>1</v>
@@ -5059,13 +5053,13 @@
     </row>
     <row r="176" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>363</v>
+        <v>7</v>
       </c>
       <c r="D176" s="2">
         <v>1</v>
@@ -5073,13 +5067,13 @@
     </row>
     <row r="177" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D177" s="2">
         <v>1</v>
@@ -5090,10 +5084,10 @@
         <v>366</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D178" s="2">
         <v>1</v>
@@ -5104,10 +5098,10 @@
         <v>367</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D179" s="2">
         <v>1</v>
@@ -5115,13 +5109,13 @@
     </row>
     <row r="180" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D180" s="2">
         <v>1</v>
@@ -5129,13 +5123,13 @@
     </row>
     <row r="181" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D181" s="2">
         <v>1</v>
@@ -5143,13 +5137,13 @@
     </row>
     <row r="182" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D182" s="2">
         <v>1</v>
@@ -5157,13 +5151,13 @@
     </row>
     <row r="183" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="D183" s="2">
         <v>1</v>
@@ -5171,13 +5165,13 @@
     </row>
     <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D184" s="2">
         <v>1</v>
@@ -5185,13 +5179,13 @@
     </row>
     <row r="185" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D185" s="2">
         <v>1</v>
@@ -5199,13 +5193,13 @@
     </row>
     <row r="186" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>58</v>
+        <v>383</v>
       </c>
       <c r="D186" s="2">
         <v>1</v>
@@ -5213,13 +5207,13 @@
     </row>
     <row r="187" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>384</v>
+        <v>7</v>
       </c>
       <c r="D187" s="2">
         <v>1</v>
@@ -5227,13 +5221,13 @@
     </row>
     <row r="188" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D188" s="2">
         <v>1</v>
@@ -5241,13 +5235,13 @@
     </row>
     <row r="189" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D189" s="2">
         <v>1</v>
@@ -5255,13 +5249,13 @@
     </row>
     <row r="190" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D190" s="2">
         <v>1</v>
@@ -5269,13 +5263,13 @@
     </row>
     <row r="191" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>34</v>
+        <v>394</v>
       </c>
       <c r="D191" s="2">
         <v>1</v>
@@ -5283,39 +5277,39 @@
     </row>
     <row r="192" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>395</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C192" s="2"/>
       <c r="D192" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C193" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="D193" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="D194" s="2">
         <v>1</v>
@@ -5326,10 +5320,10 @@
         <v>401</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D195" s="2">
         <v>1</v>
@@ -5337,13 +5331,13 @@
     </row>
     <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="D196" s="2">
         <v>1</v>
@@ -5351,24 +5345,22 @@
     </row>
     <row r="197" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C197" s="2"/>
       <c r="D197" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2">
@@ -5377,25 +5369,27 @@
     </row>
     <row r="199" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C199" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D199" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D200" s="2">
         <v>1</v>
@@ -5403,13 +5397,13 @@
     </row>
     <row r="201" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>8</v>
+        <v>415</v>
       </c>
       <c r="D201" s="2">
         <v>1</v>
@@ -5417,13 +5411,13 @@
     </row>
     <row r="202" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>416</v>
+        <v>7</v>
       </c>
       <c r="D202" s="2">
         <v>1</v>
@@ -5431,13 +5425,13 @@
     </row>
     <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D203" s="2">
         <v>1</v>
@@ -5445,13 +5439,13 @@
     </row>
     <row r="204" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D204" s="2">
         <v>1</v>
@@ -5459,13 +5453,13 @@
     </row>
     <row r="205" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D205" s="2">
         <v>1</v>
@@ -5473,13 +5467,13 @@
     </row>
     <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D206" s="2">
         <v>1</v>
@@ -5487,41 +5481,41 @@
     </row>
     <row r="207" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D207" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D208" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D209" s="2">
         <v>1</v>
@@ -5529,13 +5523,13 @@
     </row>
     <row r="210" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>432</v>
+        <v>700</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D210" s="2">
         <v>1</v>
@@ -5549,7 +5543,7 @@
         <v>434</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D211" s="2">
         <v>1</v>
@@ -5557,13 +5551,13 @@
     </row>
     <row r="212" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D212" s="2">
         <v>1</v>
@@ -5571,13 +5565,13 @@
     </row>
     <row r="213" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D213" s="2">
         <v>1</v>
@@ -5585,13 +5579,13 @@
     </row>
     <row r="214" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D214" s="2">
         <v>1</v>
@@ -5599,27 +5593,27 @@
     </row>
     <row r="215" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D215" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D216" s="2">
         <v>1</v>
@@ -5627,27 +5621,27 @@
     </row>
     <row r="217" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D217" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D218" s="2">
         <v>1</v>
@@ -5655,13 +5649,13 @@
     </row>
     <row r="219" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D219" s="2">
         <v>1</v>
@@ -5669,27 +5663,25 @@
     </row>
     <row r="220" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C220" s="2"/>
       <c r="D220" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D221" s="2">
         <v>1</v>
@@ -5697,25 +5689,27 @@
     </row>
     <row r="222" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C222" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D222" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D223" s="2">
         <v>1</v>
@@ -5723,13 +5717,13 @@
     </row>
     <row r="224" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>8</v>
+        <v>461</v>
       </c>
       <c r="D224" s="2">
         <v>1</v>
@@ -5737,13 +5731,13 @@
     </row>
     <row r="225" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D225" s="2">
         <v>1</v>
@@ -5751,13 +5745,13 @@
     </row>
     <row r="226" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>464</v>
+        <v>42</v>
       </c>
       <c r="D226" s="2">
         <v>1</v>
@@ -5765,13 +5759,13 @@
     </row>
     <row r="227" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D227" s="2">
         <v>1</v>
@@ -5779,13 +5773,13 @@
     </row>
     <row r="228" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D228" s="2">
         <v>1</v>
@@ -5793,13 +5787,13 @@
     </row>
     <row r="229" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D229" s="2">
         <v>1</v>
@@ -5807,13 +5801,13 @@
     </row>
     <row r="230" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D230" s="2">
         <v>1</v>
@@ -5821,13 +5815,13 @@
     </row>
     <row r="231" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D231" s="2">
         <v>1</v>
@@ -5835,14 +5829,12 @@
     </row>
     <row r="232" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C232" s="2"/>
       <c r="D232" s="2">
         <v>1</v>
       </c>
@@ -5855,7 +5847,7 @@
         <v>478</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D233" s="2">
         <v>1</v>
@@ -5866,36 +5858,36 @@
         <v>479</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C234" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D234" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="C235" s="2"/>
       <c r="D235" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D236" s="2">
         <v>1</v>
@@ -5903,25 +5895,27 @@
     </row>
     <row r="237" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C237" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D237" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>487</v>
+        <v>137</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="D238" s="2">
         <v>1</v>
@@ -5935,7 +5929,7 @@
         <v>489</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D239" s="2">
         <v>1</v>
@@ -5946,10 +5940,10 @@
         <v>490</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>138</v>
+        <v>491</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D240" s="2">
         <v>1</v>
@@ -5957,13 +5951,13 @@
     </row>
     <row r="241" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D241" s="2">
         <v>1</v>
@@ -5971,13 +5965,13 @@
     </row>
     <row r="242" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D242" s="2">
         <v>1</v>
@@ -5991,7 +5985,7 @@
         <v>496</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D243" s="2">
         <v>1</v>
@@ -6002,10 +5996,10 @@
         <v>497</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D244" s="2">
         <v>1</v>
@@ -6013,13 +6007,13 @@
     </row>
     <row r="245" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D245" s="2">
         <v>1</v>
@@ -6027,13 +6021,13 @@
     </row>
     <row r="246" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="D246" s="2">
         <v>1</v>
@@ -6041,13 +6035,13 @@
     </row>
     <row r="247" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D247" s="2">
         <v>1</v>
@@ -6055,27 +6049,25 @@
     </row>
     <row r="248" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>173</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C248" s="2"/>
       <c r="D248" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D249" s="2">
         <v>1</v>
@@ -6083,25 +6075,27 @@
     </row>
     <row r="250" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C250" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D250" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D251" s="2">
         <v>1</v>
@@ -6109,13 +6103,13 @@
     </row>
     <row r="252" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D252" s="2">
         <v>1</v>
@@ -6123,13 +6117,13 @@
     </row>
     <row r="253" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D253" s="2">
         <v>1</v>
@@ -6137,13 +6131,13 @@
     </row>
     <row r="254" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D254" s="2">
         <v>1</v>
@@ -6151,13 +6145,13 @@
     </row>
     <row r="255" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D255" s="2">
         <v>1</v>
@@ -6165,27 +6159,25 @@
     </row>
     <row r="256" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C256" s="2"/>
       <c r="D256" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>523</v>
+        <v>339</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D257" s="2">
         <v>1</v>
@@ -6198,7 +6190,9 @@
       <c r="B258" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C258" s="2"/>
+      <c r="C258" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D258" s="2">
         <v>1</v>
       </c>
@@ -6208,24 +6202,22 @@
         <v>526</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="C259" s="2"/>
       <c r="D259" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D260" s="2">
         <v>1</v>
@@ -6233,25 +6225,27 @@
     </row>
     <row r="261" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C261" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D261" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D262" s="2">
         <v>1</v>
@@ -6259,13 +6253,13 @@
     </row>
     <row r="263" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>533</v>
+        <v>339</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D263" s="2">
         <v>1</v>
@@ -6279,7 +6273,7 @@
         <v>536</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>8</v>
+        <v>537</v>
       </c>
       <c r="D264" s="2">
         <v>1</v>
@@ -6287,13 +6281,13 @@
     </row>
     <row r="265" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>340</v>
+        <v>538</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D265" s="2">
         <v>1</v>
@@ -6301,13 +6295,13 @@
     </row>
     <row r="266" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>540</v>
+        <v>42</v>
       </c>
       <c r="D266" s="2">
         <v>1</v>
@@ -6315,13 +6309,13 @@
     </row>
     <row r="267" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D267" s="2">
         <v>1</v>
@@ -6335,7 +6329,7 @@
         <v>544</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D268" s="2">
         <v>1</v>
@@ -6346,10 +6340,10 @@
         <v>545</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D269" s="2">
         <v>1</v>
@@ -6357,13 +6351,13 @@
     </row>
     <row r="270" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="D270" s="2">
         <v>1</v>
@@ -6371,13 +6365,13 @@
     </row>
     <row r="271" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D271" s="2">
         <v>1</v>
@@ -6385,13 +6379,13 @@
     </row>
     <row r="272" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D272" s="2">
         <v>1</v>
@@ -6399,13 +6393,13 @@
     </row>
     <row r="273" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D273" s="2">
         <v>1</v>
@@ -6413,13 +6407,13 @@
     </row>
     <row r="274" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D274" s="2">
         <v>1</v>
@@ -6427,27 +6421,25 @@
     </row>
     <row r="275" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="C275" s="2"/>
       <c r="D275" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D276" s="2">
         <v>1</v>
@@ -6455,25 +6447,27 @@
     </row>
     <row r="277" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C277" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="D277" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D278" s="2">
         <v>1</v>
@@ -6481,13 +6475,13 @@
     </row>
     <row r="279" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="D279" s="2">
         <v>1</v>
@@ -6495,65 +6489,65 @@
     </row>
     <row r="280" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="C280" s="2"/>
       <c r="D280" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="C281" s="2"/>
       <c r="D281" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C282" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D282" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C283" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D283" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D284" s="2">
         <v>1</v>
@@ -6561,13 +6555,13 @@
     </row>
     <row r="285" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D285" s="2">
         <v>1</v>
@@ -6575,13 +6569,13 @@
     </row>
     <row r="286" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D286" s="2">
         <v>1</v>
@@ -6589,13 +6583,13 @@
     </row>
     <row r="287" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>581</v>
+        <v>701</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D287" s="2">
         <v>1</v>
@@ -6609,7 +6603,7 @@
         <v>583</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D288" s="2">
         <v>1</v>
@@ -6623,7 +6617,7 @@
         <v>585</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D289" s="2">
         <v>1</v>
@@ -6631,13 +6625,13 @@
     </row>
     <row r="290" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D290" s="2">
         <v>1</v>
@@ -6645,13 +6639,13 @@
     </row>
     <row r="291" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D291" s="2">
         <v>1</v>
@@ -6659,13 +6653,13 @@
     </row>
     <row r="292" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D292" s="2">
         <v>1</v>
@@ -6673,13 +6667,13 @@
     </row>
     <row r="293" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D293" s="2">
         <v>1</v>
@@ -6687,13 +6681,13 @@
     </row>
     <row r="294" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D294" s="2">
         <v>1</v>
@@ -6701,13 +6695,13 @@
     </row>
     <row r="295" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D295" s="2">
         <v>1</v>
@@ -6715,13 +6709,13 @@
     </row>
     <row r="296" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D296" s="2">
         <v>1</v>
@@ -6729,13 +6723,13 @@
     </row>
     <row r="297" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D297" s="2">
         <v>1</v>
@@ -6743,13 +6737,13 @@
     </row>
     <row r="298" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D298" s="2">
         <v>1</v>
@@ -6757,28 +6751,24 @@
     </row>
     <row r="299" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="C299" s="2"/>
       <c r="D299" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="C300" s="2"/>
       <c r="D300" s="2">
         <v>1</v>
       </c>
@@ -6791,7 +6781,7 @@
         <v>608</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D301" s="2">
         <v>1</v>
@@ -6804,7 +6794,9 @@
       <c r="B302" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C302" s="2"/>
+      <c r="C302" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D302" s="2">
         <v>1</v>
       </c>
@@ -6814,22 +6806,24 @@
         <v>611</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C303" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D303" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D304" s="2">
         <v>1</v>
@@ -6837,13 +6831,13 @@
     </row>
     <row r="305" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D305" s="2">
         <v>1</v>
@@ -6851,13 +6845,13 @@
     </row>
     <row r="306" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D306" s="2">
         <v>1</v>
@@ -6865,13 +6859,13 @@
     </row>
     <row r="307" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>8</v>
+        <v>357</v>
       </c>
       <c r="D307" s="2">
         <v>1</v>
@@ -6879,13 +6873,13 @@
     </row>
     <row r="308" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D308" s="2">
         <v>1</v>
@@ -6893,13 +6887,13 @@
     </row>
     <row r="309" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>400</v>
+        <v>7</v>
       </c>
       <c r="D309" s="2">
         <v>1</v>
@@ -6907,13 +6901,13 @@
     </row>
     <row r="310" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>43</v>
+        <v>627</v>
       </c>
       <c r="D310" s="2">
         <v>1</v>
@@ -6921,13 +6915,13 @@
     </row>
     <row r="311" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D311" s="2">
         <v>1</v>
@@ -6935,13 +6929,13 @@
     </row>
     <row r="312" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D312" s="2">
         <v>1</v>
@@ -6949,27 +6943,25 @@
     </row>
     <row r="313" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="C313" s="2"/>
       <c r="D313" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>633</v>
+        <v>7</v>
       </c>
       <c r="D314" s="2">
         <v>1</v>
@@ -6977,13 +6969,13 @@
     </row>
     <row r="315" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>363</v>
+        <v>7</v>
       </c>
       <c r="D315" s="2">
         <v>1</v>
@@ -6991,13 +6983,13 @@
     </row>
     <row r="316" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>637</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D316" s="2">
         <v>1</v>
@@ -7005,25 +6997,27 @@
     </row>
     <row r="317" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C317" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D317" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D318" s="2">
         <v>1</v>
@@ -7031,27 +7025,25 @@
     </row>
     <row r="319" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="C319" s="2"/>
       <c r="D319" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D320" s="2">
         <v>1</v>
@@ -7059,13 +7051,13 @@
     </row>
     <row r="321" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D321" s="2">
         <v>1</v>
@@ -7073,13 +7065,13 @@
     </row>
     <row r="322" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D322" s="2">
         <v>1</v>
@@ -7087,25 +7079,27 @@
     </row>
     <row r="323" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C323" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D323" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>332</v>
+        <v>14</v>
       </c>
       <c r="D324" s="2">
         <v>1</v>
@@ -7113,27 +7107,25 @@
     </row>
     <row r="325" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="C325" s="2"/>
       <c r="D325" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D326" s="2">
         <v>1</v>
@@ -7141,13 +7133,13 @@
     </row>
     <row r="327" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D327" s="2">
         <v>1</v>
@@ -7155,13 +7147,13 @@
     </row>
     <row r="328" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="D328" s="2">
         <v>1</v>
@@ -7169,25 +7161,27 @@
     </row>
     <row r="329" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="C329" s="2"/>
+        <v>664</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D329" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D330" s="2">
         <v>1</v>
@@ -7195,13 +7189,13 @@
     </row>
     <row r="331" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D331" s="2">
         <v>1</v>
@@ -7209,13 +7203,13 @@
     </row>
     <row r="332" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="D332" s="2">
         <v>1</v>
@@ -7223,13 +7217,13 @@
     </row>
     <row r="333" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D333" s="2">
         <v>1</v>
@@ -7237,13 +7231,13 @@
     </row>
     <row r="334" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D334" s="2">
         <v>1</v>
@@ -7251,13 +7245,13 @@
     </row>
     <row r="335" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D335" s="2">
         <v>1</v>
@@ -7265,13 +7259,13 @@
     </row>
     <row r="336" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="D336" s="2">
         <v>1</v>
@@ -7279,13 +7273,13 @@
     </row>
     <row r="337" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D337" s="2">
         <v>1</v>
@@ -7293,13 +7287,13 @@
     </row>
     <row r="338" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>679</v>
+        <v>326</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D338" s="2">
         <v>1</v>
@@ -7307,13 +7301,13 @@
     </row>
     <row r="339" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D339" s="2">
         <v>1</v>
@@ -7321,13 +7315,13 @@
     </row>
     <row r="340" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="D340" s="2">
         <v>1</v>
@@ -7335,41 +7329,37 @@
     </row>
     <row r="341" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="C341" s="2"/>
       <c r="D341" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C342" s="2"/>
       <c r="D342" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D343" s="2">
         <v>1</v>
@@ -7377,13 +7367,13 @@
     </row>
     <row r="344" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D344" s="2">
         <v>1</v>
@@ -7391,97 +7381,69 @@
     </row>
     <row r="345" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C345" s="2"/>
+        <v>694</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D345" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C346" s="2"/>
+        <v>696</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D346" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>31</v>
+        <v>357</v>
       </c>
       <c r="D347" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A348" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D348" s="2">
-        <v>1</v>
-      </c>
+      <c r="A348" s="2"/>
+      <c r="B348" s="2"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="2"/>
     </row>
     <row r="349" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A349" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D349" s="2">
-        <v>1</v>
-      </c>
+      <c r="A349" s="2"/>
+      <c r="B349" s="2"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="2"/>
     </row>
     <row r="350" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A350" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D350" s="2">
-        <v>1</v>
-      </c>
+      <c r="A350" s="2"/>
+      <c r="B350" s="2"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="2"/>
     </row>
     <row r="351" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A351" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D351" s="2">
-        <v>1</v>
-      </c>
+      <c r="A351" s="2"/>
+      <c r="B351" s="2"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TsakonianDB/tables/main.xlsx
+++ b/TsakonianDB/tables/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\TsakonianDB\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE34493-FF2D-49CA-BABA-ACECEBD0775C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D086CA5-1019-4199-ADF9-5EC2685DAF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2612,7 +2612,7 @@
   <dimension ref="A1:D351"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="A348" sqref="A348:D348"/>
+      <selection activeCell="G347" sqref="G347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TsakonianDB/tables/main.xlsx
+++ b/TsakonianDB/tables/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\TsakonianDB\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D086CA5-1019-4199-ADF9-5EC2685DAF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F570979-89E3-486E-8470-62EDFF198CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>greek</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>α</t>
   </si>
   <si>
@@ -2126,6 +2123,9 @@
   </si>
   <si>
     <t>φτάνω; σώζω</t>
+  </si>
+  <si>
+    <t>source_id</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2318,7 @@
     <tableColumn id="1" xr3:uid="{B6C9486A-BB8C-465C-BC14-66C80BC94B36}" name="tsakonian" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{1DC6BB10-69CE-43E8-BA20-E10761E36A3A}" name="greek" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{7AED8A60-951D-4646-8BB1-896986595D84}" name="paradigm" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{9C0FDB4D-97ED-441B-A84D-3F6FDDFED67A}" name="source" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{9C0FDB4D-97ED-441B-A84D-3F6FDDFED67A}" name="source_id" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2611,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="G347" sqref="G347"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2631,18 +2631,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
@@ -2651,13 +2651,13 @@
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2665,13 +2665,13 @@
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2679,13 +2679,13 @@
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2693,13 +2693,13 @@
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2707,13 +2707,13 @@
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2721,13 +2721,13 @@
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -2735,13 +2735,13 @@
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -2749,13 +2749,13 @@
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -2775,13 +2775,13 @@
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -2817,13 +2817,13 @@
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -2831,13 +2831,13 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -2845,13 +2845,13 @@
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2859,13 +2859,13 @@
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2873,13 +2873,13 @@
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2887,13 +2887,13 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2901,13 +2901,13 @@
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2915,13 +2915,13 @@
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -2943,13 +2943,13 @@
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -2957,13 +2957,13 @@
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -2985,13 +2985,13 @@
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -3013,10 +3013,10 @@
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
@@ -3025,13 +3025,13 @@
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -3039,13 +3039,13 @@
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -3053,13 +3053,13 @@
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -3067,13 +3067,13 @@
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2">
         <v>2</v>
@@ -3081,13 +3081,13 @@
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -3095,13 +3095,13 @@
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -3109,10 +3109,10 @@
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
@@ -3121,13 +3121,13 @@
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -3135,13 +3135,13 @@
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -3149,13 +3149,13 @@
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -3163,13 +3163,13 @@
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -3177,13 +3177,13 @@
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -3205,13 +3205,13 @@
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -3219,13 +3219,13 @@
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -3247,13 +3247,13 @@
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -3261,13 +3261,13 @@
     </row>
     <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -3275,13 +3275,13 @@
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -3317,13 +3317,13 @@
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -3331,13 +3331,13 @@
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="2">
         <v>2</v>
@@ -3359,13 +3359,13 @@
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" s="2">
         <v>2</v>
@@ -3387,13 +3387,13 @@
     </row>
     <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2">
         <v>2</v>
@@ -3401,13 +3401,13 @@
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2">
@@ -3427,13 +3427,13 @@
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
@@ -3441,13 +3441,13 @@
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="2">
         <v>2</v>
@@ -3455,13 +3455,13 @@
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" s="2">
         <v>1</v>
@@ -3469,13 +3469,13 @@
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -3483,13 +3483,13 @@
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -3497,10 +3497,10 @@
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2">
@@ -3509,13 +3509,13 @@
     </row>
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
@@ -3523,13 +3523,13 @@
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
@@ -3551,13 +3551,13 @@
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2">
         <v>1</v>
@@ -3565,13 +3565,13 @@
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D69" s="2">
         <v>1</v>
@@ -3579,13 +3579,13 @@
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D70" s="2">
         <v>2</v>
@@ -3593,13 +3593,13 @@
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
@@ -3607,13 +3607,13 @@
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
@@ -3621,13 +3621,13 @@
     </row>
     <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73" s="2">
         <v>2</v>
@@ -3635,13 +3635,13 @@
     </row>
     <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="2">
         <v>1</v>
@@ -3649,13 +3649,13 @@
     </row>
     <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="D75" s="2">
         <v>1</v>
@@ -3663,13 +3663,13 @@
     </row>
     <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="2">
         <v>2</v>
@@ -3677,13 +3677,13 @@
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D77" s="2">
         <v>1</v>
@@ -3691,13 +3691,13 @@
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>1</v>
@@ -3705,13 +3705,13 @@
     </row>
     <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="2">
         <v>2</v>
@@ -3719,13 +3719,13 @@
     </row>
     <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" s="2">
         <v>2</v>
@@ -3733,13 +3733,13 @@
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
@@ -3747,13 +3747,13 @@
     </row>
     <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82" s="2">
         <v>2</v>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D83" s="2">
         <v>1</v>
@@ -3775,13 +3775,13 @@
     </row>
     <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
@@ -3789,13 +3789,13 @@
     </row>
     <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
@@ -3803,13 +3803,13 @@
     </row>
     <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
@@ -3817,13 +3817,13 @@
     </row>
     <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D87" s="2">
         <v>1</v>
@@ -3831,10 +3831,10 @@
     </row>
     <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2">
@@ -3843,13 +3843,13 @@
     </row>
     <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89" s="2">
         <v>2</v>
@@ -3857,13 +3857,13 @@
     </row>
     <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2">
         <v>2</v>
@@ -3871,13 +3871,13 @@
     </row>
     <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
@@ -3885,13 +3885,13 @@
     </row>
     <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
@@ -3899,13 +3899,13 @@
     </row>
     <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D93" s="2">
         <v>2</v>
@@ -3913,13 +3913,13 @@
     </row>
     <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
@@ -3927,13 +3927,13 @@
     </row>
     <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D95" s="2">
         <v>2</v>
@@ -3941,13 +3941,13 @@
     </row>
     <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" s="2">
         <v>1</v>
@@ -3955,13 +3955,13 @@
     </row>
     <row r="97" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D97" s="2">
         <v>1</v>
@@ -3969,13 +3969,13 @@
     </row>
     <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" s="2">
         <v>1</v>
@@ -3983,13 +3983,13 @@
     </row>
     <row r="99" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" s="2">
         <v>1</v>
@@ -3997,13 +3997,13 @@
     </row>
     <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>1</v>
@@ -4011,13 +4011,13 @@
     </row>
     <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D101" s="2">
         <v>1</v>
@@ -4025,13 +4025,13 @@
     </row>
     <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D102" s="2">
         <v>1</v>
@@ -4039,13 +4039,13 @@
     </row>
     <row r="103" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D103" s="2">
         <v>1</v>
@@ -4053,13 +4053,13 @@
     </row>
     <row r="104" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D104" s="2">
         <v>1</v>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="105" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2">
@@ -4079,13 +4079,13 @@
     </row>
     <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D106" s="2">
         <v>1</v>
@@ -4093,13 +4093,13 @@
     </row>
     <row r="107" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2">
         <v>1</v>
@@ -4107,13 +4107,13 @@
     </row>
     <row r="108" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D108" s="2">
         <v>1</v>
@@ -4121,13 +4121,13 @@
     </row>
     <row r="109" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D109" s="2">
         <v>1</v>
@@ -4135,13 +4135,13 @@
     </row>
     <row r="110" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110" s="2">
         <v>1</v>
@@ -4149,13 +4149,13 @@
     </row>
     <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111" s="2">
         <v>1</v>
@@ -4163,13 +4163,13 @@
     </row>
     <row r="112" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D112" s="2">
         <v>1</v>
@@ -4177,13 +4177,13 @@
     </row>
     <row r="113" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113" s="2">
         <v>1</v>
@@ -4191,13 +4191,13 @@
     </row>
     <row r="114" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2">
         <v>1</v>
@@ -4205,13 +4205,13 @@
     </row>
     <row r="115" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" s="2">
         <v>1</v>
@@ -4219,13 +4219,13 @@
     </row>
     <row r="116" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D116" s="2">
         <v>1</v>
@@ -4233,13 +4233,13 @@
     </row>
     <row r="117" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D117" s="2">
         <v>1</v>
@@ -4247,13 +4247,13 @@
     </row>
     <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D118" s="2">
         <v>1</v>
@@ -4261,10 +4261,10 @@
     </row>
     <row r="119" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2">
@@ -4273,13 +4273,13 @@
     </row>
     <row r="120" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D120" s="2">
         <v>1</v>
@@ -4287,13 +4287,13 @@
     </row>
     <row r="121" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D121" s="2">
         <v>1</v>
@@ -4301,13 +4301,13 @@
     </row>
     <row r="122" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2">
         <v>1</v>
@@ -4315,13 +4315,13 @@
     </row>
     <row r="123" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D123" s="2">
         <v>2</v>
@@ -4329,13 +4329,13 @@
     </row>
     <row r="124" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D124" s="2">
         <v>1</v>
@@ -4343,13 +4343,13 @@
     </row>
     <row r="125" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D125" s="2">
         <v>1</v>
@@ -4357,13 +4357,13 @@
     </row>
     <row r="126" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D126" s="2">
         <v>1</v>
@@ -4371,13 +4371,13 @@
     </row>
     <row r="127" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D127" s="2">
         <v>1</v>
@@ -4385,13 +4385,13 @@
     </row>
     <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D128" s="2">
         <v>1</v>
@@ -4399,13 +4399,13 @@
     </row>
     <row r="129" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2">
         <v>1</v>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="130" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2">
@@ -4425,13 +4425,13 @@
     </row>
     <row r="131" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D131" s="2">
         <v>1</v>
@@ -4439,13 +4439,13 @@
     </row>
     <row r="132" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D132" s="2">
         <v>1</v>
@@ -4453,13 +4453,13 @@
     </row>
     <row r="133" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D133" s="2">
         <v>1</v>
@@ -4467,13 +4467,13 @@
     </row>
     <row r="134" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D134" s="2">
         <v>1</v>
@@ -4481,13 +4481,13 @@
     </row>
     <row r="135" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D135" s="2">
         <v>1</v>
@@ -4495,13 +4495,13 @@
     </row>
     <row r="136" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D136" s="2">
         <v>2</v>
@@ -4509,13 +4509,13 @@
     </row>
     <row r="137" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="C137" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D137" s="2">
         <v>1</v>
@@ -4523,13 +4523,13 @@
     </row>
     <row r="138" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>1</v>
@@ -4537,13 +4537,13 @@
     </row>
     <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D139" s="2">
         <v>1</v>
@@ -4551,13 +4551,13 @@
     </row>
     <row r="140" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D140" s="2">
         <v>1</v>
@@ -4565,13 +4565,13 @@
     </row>
     <row r="141" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D141" s="2">
         <v>1</v>
@@ -4579,13 +4579,13 @@
     </row>
     <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="C142" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2">
         <v>1</v>
@@ -4593,13 +4593,13 @@
     </row>
     <row r="143" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="C143" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D143" s="2">
         <v>1</v>
@@ -4607,13 +4607,13 @@
     </row>
     <row r="144" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C144" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D144" s="2">
         <v>1</v>
@@ -4621,13 +4621,13 @@
     </row>
     <row r="145" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="C145" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D145" s="2">
         <v>1</v>
@@ -4635,13 +4635,13 @@
     </row>
     <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C146" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D146" s="2">
         <v>1</v>
@@ -4649,13 +4649,13 @@
     </row>
     <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D147" s="2">
         <v>1</v>
@@ -4663,13 +4663,13 @@
     </row>
     <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="C148" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D148" s="2">
         <v>1</v>
@@ -4677,13 +4677,13 @@
     </row>
     <row r="149" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="C149" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D149" s="2">
         <v>1</v>
@@ -4691,10 +4691,10 @@
     </row>
     <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2">
@@ -4703,13 +4703,13 @@
     </row>
     <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="C151" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D151" s="2">
         <v>1</v>
@@ -4717,13 +4717,13 @@
     </row>
     <row r="152" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="C152" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D152" s="2">
         <v>1</v>
@@ -4731,13 +4731,13 @@
     </row>
     <row r="153" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D153" s="2">
         <v>1</v>
@@ -4745,13 +4745,13 @@
     </row>
     <row r="154" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="C154" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D154" s="2">
         <v>1</v>
@@ -4759,13 +4759,13 @@
     </row>
     <row r="155" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D155" s="2">
         <v>1</v>
@@ -4773,13 +4773,13 @@
     </row>
     <row r="156" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D156" s="2">
         <v>1</v>
@@ -4787,13 +4787,13 @@
     </row>
     <row r="157" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D157" s="2">
         <v>1</v>
@@ -4801,13 +4801,13 @@
     </row>
     <row r="158" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D158" s="2">
         <v>1</v>
@@ -4815,13 +4815,13 @@
     </row>
     <row r="159" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="C159" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D159" s="2">
         <v>1</v>
@@ -4829,13 +4829,13 @@
     </row>
     <row r="160" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="D160" s="2">
         <v>1</v>
@@ -4843,13 +4843,13 @@
     </row>
     <row r="161" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D161" s="2">
         <v>1</v>
@@ -4857,13 +4857,13 @@
     </row>
     <row r="162" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="C162" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D162" s="2">
         <v>1</v>
@@ -4871,13 +4871,13 @@
     </row>
     <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="C163" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D163" s="2">
         <v>1</v>
@@ -4885,13 +4885,13 @@
     </row>
     <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C164" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D164" s="2">
         <v>1</v>
@@ -4899,13 +4899,13 @@
     </row>
     <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="C165" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D165" s="2">
         <v>1</v>
@@ -4913,13 +4913,13 @@
     </row>
     <row r="166" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="C166" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D166" s="2">
         <v>1</v>
@@ -4927,13 +4927,13 @@
     </row>
     <row r="167" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="C167" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D167" s="2">
         <v>1</v>
@@ -4941,13 +4941,13 @@
     </row>
     <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="C168" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D168" s="2">
         <v>1</v>
@@ -4955,13 +4955,13 @@
     </row>
     <row r="169" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="C169" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D169" s="2">
         <v>1</v>
@@ -4969,13 +4969,13 @@
     </row>
     <row r="170" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D170" s="2">
         <v>1</v>
@@ -4983,13 +4983,13 @@
     </row>
     <row r="171" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D171" s="2">
         <v>1</v>
@@ -4997,13 +4997,13 @@
     </row>
     <row r="172" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="C172" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D172" s="2">
         <v>1</v>
@@ -5011,13 +5011,13 @@
     </row>
     <row r="173" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="C173" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2">
         <v>1</v>
@@ -5025,13 +5025,13 @@
     </row>
     <row r="174" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="C174" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D174" s="2">
         <v>1</v>
@@ -5039,13 +5039,13 @@
     </row>
     <row r="175" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="D175" s="2">
         <v>1</v>
@@ -5053,13 +5053,13 @@
     </row>
     <row r="176" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="C176" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D176" s="2">
         <v>1</v>
@@ -5067,13 +5067,13 @@
     </row>
     <row r="177" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D177" s="2">
         <v>1</v>
@@ -5081,13 +5081,13 @@
     </row>
     <row r="178" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D178" s="2">
         <v>1</v>
@@ -5095,13 +5095,13 @@
     </row>
     <row r="179" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="C179" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D179" s="2">
         <v>1</v>
@@ -5109,13 +5109,13 @@
     </row>
     <row r="180" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="C180" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D180" s="2">
         <v>1</v>
@@ -5123,13 +5123,13 @@
     </row>
     <row r="181" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="C181" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D181" s="2">
         <v>1</v>
@@ -5137,13 +5137,13 @@
     </row>
     <row r="182" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="C182" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D182" s="2">
         <v>1</v>
@@ -5151,13 +5151,13 @@
     </row>
     <row r="183" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="C183" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D183" s="2">
         <v>1</v>
@@ -5165,13 +5165,13 @@
     </row>
     <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="C184" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D184" s="2">
         <v>1</v>
@@ -5179,13 +5179,13 @@
     </row>
     <row r="185" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="C185" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D185" s="2">
         <v>1</v>
@@ -5193,13 +5193,13 @@
     </row>
     <row r="186" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="D186" s="2">
         <v>1</v>
@@ -5207,13 +5207,13 @@
     </row>
     <row r="187" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="C187" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D187" s="2">
         <v>1</v>
@@ -5221,13 +5221,13 @@
     </row>
     <row r="188" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="C188" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D188" s="2">
         <v>1</v>
@@ -5235,13 +5235,13 @@
     </row>
     <row r="189" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="C189" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D189" s="2">
         <v>1</v>
@@ -5249,13 +5249,13 @@
     </row>
     <row r="190" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="C190" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D190" s="2">
         <v>1</v>
@@ -5263,13 +5263,13 @@
     </row>
     <row r="191" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="D191" s="2">
         <v>1</v>
@@ -5277,10 +5277,10 @@
     </row>
     <row r="192" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2">
@@ -5289,13 +5289,13 @@
     </row>
     <row r="193" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="D193" s="2">
         <v>1</v>
@@ -5303,13 +5303,13 @@
     </row>
     <row r="194" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D194" s="2">
         <v>1</v>
@@ -5317,13 +5317,13 @@
     </row>
     <row r="195" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="C195" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D195" s="2">
         <v>1</v>
@@ -5331,13 +5331,13 @@
     </row>
     <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C196" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D196" s="2">
         <v>1</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="197" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2">
@@ -5357,10 +5357,10 @@
     </row>
     <row r="198" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2">
@@ -5369,13 +5369,13 @@
     </row>
     <row r="199" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="C199" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D199" s="2">
         <v>1</v>
@@ -5383,13 +5383,13 @@
     </row>
     <row r="200" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="C200" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D200" s="2">
         <v>1</v>
@@ -5397,13 +5397,13 @@
     </row>
     <row r="201" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="C201" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="D201" s="2">
         <v>1</v>
@@ -5411,13 +5411,13 @@
     </row>
     <row r="202" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="C202" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D202" s="2">
         <v>1</v>
@@ -5425,13 +5425,13 @@
     </row>
     <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="C203" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D203" s="2">
         <v>1</v>
@@ -5439,13 +5439,13 @@
     </row>
     <row r="204" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="C204" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D204" s="2">
         <v>1</v>
@@ -5453,13 +5453,13 @@
     </row>
     <row r="205" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="C205" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D205" s="2">
         <v>1</v>
@@ -5467,13 +5467,13 @@
     </row>
     <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="C206" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D206" s="2">
         <v>1</v>
@@ -5481,13 +5481,13 @@
     </row>
     <row r="207" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="C207" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D207" s="2">
         <v>2</v>
@@ -5495,13 +5495,13 @@
     </row>
     <row r="208" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="C208" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D208" s="2">
         <v>1</v>
@@ -5509,13 +5509,13 @@
     </row>
     <row r="209" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="C209" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D209" s="2">
         <v>1</v>
@@ -5523,13 +5523,13 @@
     </row>
     <row r="210" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D210" s="2">
         <v>1</v>
@@ -5537,13 +5537,13 @@
     </row>
     <row r="211" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="C211" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D211" s="2">
         <v>1</v>
@@ -5551,13 +5551,13 @@
     </row>
     <row r="212" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="C212" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D212" s="2">
         <v>1</v>
@@ -5565,13 +5565,13 @@
     </row>
     <row r="213" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="C213" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D213" s="2">
         <v>1</v>
@@ -5579,13 +5579,13 @@
     </row>
     <row r="214" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="C214" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D214" s="2">
         <v>1</v>
@@ -5593,13 +5593,13 @@
     </row>
     <row r="215" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="C215" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D215" s="2">
         <v>2</v>
@@ -5607,13 +5607,13 @@
     </row>
     <row r="216" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="C216" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D216" s="2">
         <v>1</v>
@@ -5621,13 +5621,13 @@
     </row>
     <row r="217" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="C217" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D217" s="2">
         <v>1</v>
@@ -5635,13 +5635,13 @@
     </row>
     <row r="218" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="C218" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D218" s="2">
         <v>1</v>
@@ -5649,13 +5649,13 @@
     </row>
     <row r="219" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="C219" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D219" s="2">
         <v>1</v>
@@ -5663,10 +5663,10 @@
     </row>
     <row r="220" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2">
@@ -5675,13 +5675,13 @@
     </row>
     <row r="221" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="C221" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D221" s="2">
         <v>1</v>
@@ -5689,13 +5689,13 @@
     </row>
     <row r="222" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="C222" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D222" s="2">
         <v>1</v>
@@ -5703,13 +5703,13 @@
     </row>
     <row r="223" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="C223" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D223" s="2">
         <v>1</v>
@@ -5717,13 +5717,13 @@
     </row>
     <row r="224" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="C224" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="D224" s="2">
         <v>1</v>
@@ -5731,13 +5731,13 @@
     </row>
     <row r="225" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="C225" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D225" s="2">
         <v>1</v>
@@ -5745,13 +5745,13 @@
     </row>
     <row r="226" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="C226" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D226" s="2">
         <v>1</v>
@@ -5759,13 +5759,13 @@
     </row>
     <row r="227" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="C227" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D227" s="2">
         <v>1</v>
@@ -5773,13 +5773,13 @@
     </row>
     <row r="228" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="C228" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D228" s="2">
         <v>1</v>
@@ -5787,13 +5787,13 @@
     </row>
     <row r="229" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="C229" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D229" s="2">
         <v>1</v>
@@ -5801,13 +5801,13 @@
     </row>
     <row r="230" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="C230" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D230" s="2">
         <v>1</v>
@@ -5815,13 +5815,13 @@
     </row>
     <row r="231" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="C231" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D231" s="2">
         <v>1</v>
@@ -5829,10 +5829,10 @@
     </row>
     <row r="232" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2">
@@ -5841,13 +5841,13 @@
     </row>
     <row r="233" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="C233" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D233" s="2">
         <v>1</v>
@@ -5855,13 +5855,13 @@
     </row>
     <row r="234" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="C234" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D234" s="2">
         <v>1</v>
@@ -5869,10 +5869,10 @@
     </row>
     <row r="235" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2">
@@ -5881,13 +5881,13 @@
     </row>
     <row r="236" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C236" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D236" s="2">
         <v>1</v>
@@ -5895,13 +5895,13 @@
     </row>
     <row r="237" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="C237" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D237" s="2">
         <v>1</v>
@@ -5909,13 +5909,13 @@
     </row>
     <row r="238" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D238" s="2">
         <v>1</v>
@@ -5923,13 +5923,13 @@
     </row>
     <row r="239" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="C239" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D239" s="2">
         <v>1</v>
@@ -5937,13 +5937,13 @@
     </row>
     <row r="240" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="C240" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D240" s="2">
         <v>1</v>
@@ -5951,13 +5951,13 @@
     </row>
     <row r="241" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="C241" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D241" s="2">
         <v>1</v>
@@ -5965,13 +5965,13 @@
     </row>
     <row r="242" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D242" s="2">
         <v>1</v>
@@ -5979,13 +5979,13 @@
     </row>
     <row r="243" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="C243" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D243" s="2">
         <v>1</v>
@@ -5993,13 +5993,13 @@
     </row>
     <row r="244" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="C244" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D244" s="2">
         <v>1</v>
@@ -6007,13 +6007,13 @@
     </row>
     <row r="245" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="C245" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D245" s="2">
         <v>1</v>
@@ -6021,13 +6021,13 @@
     </row>
     <row r="246" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="C246" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D246" s="2">
         <v>1</v>
@@ -6035,13 +6035,13 @@
     </row>
     <row r="247" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>504</v>
-      </c>
       <c r="C247" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D247" s="2">
         <v>1</v>
@@ -6049,10 +6049,10 @@
     </row>
     <row r="248" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2">
@@ -6061,13 +6061,13 @@
     </row>
     <row r="249" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="C249" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D249" s="2">
         <v>1</v>
@@ -6075,13 +6075,13 @@
     </row>
     <row r="250" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="C250" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D250" s="2">
         <v>1</v>
@@ -6089,13 +6089,13 @@
     </row>
     <row r="251" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="C251" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D251" s="2">
         <v>1</v>
@@ -6103,13 +6103,13 @@
     </row>
     <row r="252" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="C252" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D252" s="2">
         <v>1</v>
@@ -6117,13 +6117,13 @@
     </row>
     <row r="253" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="C253" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D253" s="2">
         <v>1</v>
@@ -6131,13 +6131,13 @@
     </row>
     <row r="254" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="C254" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D254" s="2">
         <v>1</v>
@@ -6145,13 +6145,13 @@
     </row>
     <row r="255" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="C255" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D255" s="2">
         <v>1</v>
@@ -6159,10 +6159,10 @@
     </row>
     <row r="256" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2">
@@ -6171,13 +6171,13 @@
     </row>
     <row r="257" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D257" s="2">
         <v>1</v>
@@ -6185,13 +6185,13 @@
     </row>
     <row r="258" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="C258" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D258" s="2">
         <v>1</v>
@@ -6199,10 +6199,10 @@
     </row>
     <row r="259" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2">
@@ -6211,13 +6211,13 @@
     </row>
     <row r="260" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="C260" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D260" s="2">
         <v>1</v>
@@ -6225,13 +6225,13 @@
     </row>
     <row r="261" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="C261" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D261" s="2">
         <v>1</v>
@@ -6239,13 +6239,13 @@
     </row>
     <row r="262" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B262" s="2" t="s">
-        <v>533</v>
-      </c>
       <c r="C262" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D262" s="2">
         <v>1</v>
@@ -6253,13 +6253,13 @@
     </row>
     <row r="263" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D263" s="2">
         <v>1</v>
@@ -6267,13 +6267,13 @@
     </row>
     <row r="264" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="C264" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="D264" s="2">
         <v>1</v>
@@ -6281,13 +6281,13 @@
     </row>
     <row r="265" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="C265" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D265" s="2">
         <v>1</v>
@@ -6295,13 +6295,13 @@
     </row>
     <row r="266" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="C266" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D266" s="2">
         <v>1</v>
@@ -6309,13 +6309,13 @@
     </row>
     <row r="267" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D267" s="2">
         <v>1</v>
@@ -6323,13 +6323,13 @@
     </row>
     <row r="268" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="C268" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D268" s="2">
         <v>1</v>
@@ -6337,13 +6337,13 @@
     </row>
     <row r="269" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="C269" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D269" s="2">
         <v>1</v>
@@ -6351,13 +6351,13 @@
     </row>
     <row r="270" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="C270" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D270" s="2">
         <v>1</v>
@@ -6365,13 +6365,13 @@
     </row>
     <row r="271" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="C271" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D271" s="2">
         <v>1</v>
@@ -6379,13 +6379,13 @@
     </row>
     <row r="272" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="C272" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D272" s="2">
         <v>1</v>
@@ -6393,13 +6393,13 @@
     </row>
     <row r="273" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="C273" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D273" s="2">
         <v>1</v>
@@ -6407,13 +6407,13 @@
     </row>
     <row r="274" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="C274" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D274" s="2">
         <v>1</v>
@@ -6421,10 +6421,10 @@
     </row>
     <row r="275" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2">
@@ -6433,13 +6433,13 @@
     </row>
     <row r="276" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="C276" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D276" s="2">
         <v>1</v>
@@ -6447,13 +6447,13 @@
     </row>
     <row r="277" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="C277" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D277" s="2">
         <v>1</v>
@@ -6461,13 +6461,13 @@
     </row>
     <row r="278" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="C278" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D278" s="2">
         <v>1</v>
@@ -6475,13 +6475,13 @@
     </row>
     <row r="279" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="C279" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D279" s="2">
         <v>1</v>
@@ -6489,10 +6489,10 @@
     </row>
     <row r="280" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2">
@@ -6501,10 +6501,10 @@
     </row>
     <row r="281" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2">
@@ -6513,13 +6513,13 @@
     </row>
     <row r="282" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="C282" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D282" s="2">
         <v>1</v>
@@ -6527,13 +6527,13 @@
     </row>
     <row r="283" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>574</v>
-      </c>
       <c r="C283" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D283" s="2">
         <v>1</v>
@@ -6541,13 +6541,13 @@
     </row>
     <row r="284" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>576</v>
-      </c>
       <c r="C284" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D284" s="2">
         <v>1</v>
@@ -6555,13 +6555,13 @@
     </row>
     <row r="285" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="C285" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D285" s="2">
         <v>1</v>
@@ -6569,13 +6569,13 @@
     </row>
     <row r="286" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="C286" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D286" s="2">
         <v>1</v>
@@ -6583,13 +6583,13 @@
     </row>
     <row r="287" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D287" s="2">
         <v>1</v>
@@ -6597,13 +6597,13 @@
     </row>
     <row r="288" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="C288" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D288" s="2">
         <v>1</v>
@@ -6611,13 +6611,13 @@
     </row>
     <row r="289" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>585</v>
-      </c>
       <c r="C289" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D289" s="2">
         <v>1</v>
@@ -6625,13 +6625,13 @@
     </row>
     <row r="290" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>587</v>
-      </c>
       <c r="C290" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D290" s="2">
         <v>1</v>
@@ -6639,13 +6639,13 @@
     </row>
     <row r="291" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>589</v>
-      </c>
       <c r="C291" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D291" s="2">
         <v>1</v>
@@ -6653,13 +6653,13 @@
     </row>
     <row r="292" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="C292" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D292" s="2">
         <v>1</v>
@@ -6667,13 +6667,13 @@
     </row>
     <row r="293" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B293" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="C293" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D293" s="2">
         <v>1</v>
@@ -6681,13 +6681,13 @@
     </row>
     <row r="294" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="C294" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D294" s="2">
         <v>1</v>
@@ -6695,13 +6695,13 @@
     </row>
     <row r="295" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>597</v>
-      </c>
       <c r="C295" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D295" s="2">
         <v>1</v>
@@ -6709,13 +6709,13 @@
     </row>
     <row r="296" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="C296" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D296" s="2">
         <v>1</v>
@@ -6723,13 +6723,13 @@
     </row>
     <row r="297" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B297" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="C297" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D297" s="2">
         <v>1</v>
@@ -6737,13 +6737,13 @@
     </row>
     <row r="298" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B298" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="C298" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D298" s="2">
         <v>1</v>
@@ -6751,10 +6751,10 @@
     </row>
     <row r="299" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2">
@@ -6763,10 +6763,10 @@
     </row>
     <row r="300" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2">
@@ -6775,13 +6775,13 @@
     </row>
     <row r="301" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="B301" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="C301" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D301" s="2">
         <v>1</v>
@@ -6789,13 +6789,13 @@
     </row>
     <row r="302" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>610</v>
-      </c>
       <c r="C302" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D302" s="2">
         <v>1</v>
@@ -6803,13 +6803,13 @@
     </row>
     <row r="303" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>612</v>
-      </c>
       <c r="C303" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D303" s="2">
         <v>1</v>
@@ -6817,13 +6817,13 @@
     </row>
     <row r="304" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>614</v>
-      </c>
       <c r="C304" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D304" s="2">
         <v>1</v>
@@ -6831,13 +6831,13 @@
     </row>
     <row r="305" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>616</v>
-      </c>
       <c r="C305" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D305" s="2">
         <v>1</v>
@@ -6845,13 +6845,13 @@
     </row>
     <row r="306" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B306" s="2" t="s">
-        <v>618</v>
-      </c>
       <c r="C306" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D306" s="2">
         <v>1</v>
@@ -6859,13 +6859,13 @@
     </row>
     <row r="307" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B307" s="2" t="s">
-        <v>620</v>
-      </c>
       <c r="C307" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D307" s="2">
         <v>1</v>
@@ -6873,13 +6873,13 @@
     </row>
     <row r="308" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B308" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="C308" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D308" s="2">
         <v>1</v>
@@ -6887,13 +6887,13 @@
     </row>
     <row r="309" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>624</v>
-      </c>
       <c r="C309" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D309" s="2">
         <v>1</v>
@@ -6901,13 +6901,13 @@
     </row>
     <row r="310" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="C310" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="D310" s="2">
         <v>1</v>
@@ -6915,13 +6915,13 @@
     </row>
     <row r="311" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B311" s="2" t="s">
-        <v>629</v>
-      </c>
       <c r="C311" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D311" s="2">
         <v>1</v>
@@ -6929,13 +6929,13 @@
     </row>
     <row r="312" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B312" s="2" t="s">
-        <v>631</v>
-      </c>
       <c r="C312" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D312" s="2">
         <v>1</v>
@@ -6943,10 +6943,10 @@
     </row>
     <row r="313" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2">
@@ -6955,13 +6955,13 @@
     </row>
     <row r="314" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B314" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="C314" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D314" s="2">
         <v>1</v>
@@ -6969,13 +6969,13 @@
     </row>
     <row r="315" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B315" s="2" t="s">
-        <v>637</v>
-      </c>
       <c r="C315" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D315" s="2">
         <v>1</v>
@@ -6983,13 +6983,13 @@
     </row>
     <row r="316" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D316" s="2">
         <v>1</v>
@@ -6997,13 +6997,13 @@
     </row>
     <row r="317" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B317" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="C317" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D317" s="2">
         <v>1</v>
@@ -7011,13 +7011,13 @@
     </row>
     <row r="318" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B318" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="C318" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D318" s="2">
         <v>1</v>
@@ -7025,10 +7025,10 @@
     </row>
     <row r="319" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2">
@@ -7037,13 +7037,13 @@
     </row>
     <row r="320" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B320" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="C320" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D320" s="2">
         <v>1</v>
@@ -7051,13 +7051,13 @@
     </row>
     <row r="321" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B321" s="2" t="s">
-        <v>648</v>
-      </c>
       <c r="C321" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D321" s="2">
         <v>1</v>
@@ -7065,13 +7065,13 @@
     </row>
     <row r="322" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B322" s="2" t="s">
-        <v>650</v>
-      </c>
       <c r="C322" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D322" s="2">
         <v>1</v>
@@ -7079,13 +7079,13 @@
     </row>
     <row r="323" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B323" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="C323" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D323" s="2">
         <v>1</v>
@@ -7093,13 +7093,13 @@
     </row>
     <row r="324" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B324" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B324" s="2" t="s">
-        <v>654</v>
-      </c>
       <c r="C324" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D324" s="2">
         <v>1</v>
@@ -7107,10 +7107,10 @@
     </row>
     <row r="325" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2">
@@ -7119,13 +7119,13 @@
     </row>
     <row r="326" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B326" s="2" t="s">
-        <v>658</v>
-      </c>
       <c r="C326" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D326" s="2">
         <v>1</v>
@@ -7133,13 +7133,13 @@
     </row>
     <row r="327" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B327" s="2" t="s">
-        <v>660</v>
-      </c>
       <c r="C327" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D327" s="2">
         <v>1</v>
@@ -7147,13 +7147,13 @@
     </row>
     <row r="328" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B328" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B328" s="2" t="s">
-        <v>662</v>
-      </c>
       <c r="C328" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D328" s="2">
         <v>1</v>
@@ -7161,13 +7161,13 @@
     </row>
     <row r="329" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B329" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C329" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D329" s="2">
         <v>1</v>
@@ -7175,13 +7175,13 @@
     </row>
     <row r="330" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="C330" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D330" s="2">
         <v>1</v>
@@ -7189,13 +7189,13 @@
     </row>
     <row r="331" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B331" s="2" t="s">
-        <v>668</v>
-      </c>
       <c r="C331" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D331" s="2">
         <v>1</v>
@@ -7203,13 +7203,13 @@
     </row>
     <row r="332" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D332" s="2">
         <v>1</v>
@@ -7217,13 +7217,13 @@
     </row>
     <row r="333" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>671</v>
-      </c>
       <c r="C333" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D333" s="2">
         <v>1</v>
@@ -7231,13 +7231,13 @@
     </row>
     <row r="334" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B334" s="2" t="s">
-        <v>673</v>
-      </c>
       <c r="C334" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D334" s="2">
         <v>1</v>
@@ -7245,13 +7245,13 @@
     </row>
     <row r="335" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B335" s="2" t="s">
-        <v>675</v>
-      </c>
       <c r="C335" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D335" s="2">
         <v>1</v>
@@ -7259,13 +7259,13 @@
     </row>
     <row r="336" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B336" s="2" t="s">
-        <v>677</v>
-      </c>
       <c r="C336" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D336" s="2">
         <v>1</v>
@@ -7273,13 +7273,13 @@
     </row>
     <row r="337" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B337" s="2" t="s">
-        <v>679</v>
-      </c>
       <c r="C337" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D337" s="2">
         <v>1</v>
@@ -7287,13 +7287,13 @@
     </row>
     <row r="338" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D338" s="2">
         <v>1</v>
@@ -7301,13 +7301,13 @@
     </row>
     <row r="339" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B339" s="2" t="s">
-        <v>682</v>
-      </c>
       <c r="C339" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D339" s="2">
         <v>1</v>
@@ -7315,13 +7315,13 @@
     </row>
     <row r="340" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B340" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B340" s="2" t="s">
-        <v>684</v>
-      </c>
       <c r="C340" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D340" s="2">
         <v>1</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="341" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B341" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2">
@@ -7341,10 +7341,10 @@
     </row>
     <row r="342" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2">
@@ -7353,13 +7353,13 @@
     </row>
     <row r="343" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B343" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B343" s="2" t="s">
-        <v>690</v>
-      </c>
       <c r="C343" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D343" s="2">
         <v>1</v>
@@ -7367,13 +7367,13 @@
     </row>
     <row r="344" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B344" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B344" s="2" t="s">
-        <v>692</v>
-      </c>
       <c r="C344" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D344" s="2">
         <v>1</v>
@@ -7381,13 +7381,13 @@
     </row>
     <row r="345" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B345" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B345" s="2" t="s">
-        <v>694</v>
-      </c>
       <c r="C345" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D345" s="2">
         <v>1</v>
@@ -7395,13 +7395,13 @@
     </row>
     <row r="346" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B346" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B346" s="2" t="s">
-        <v>696</v>
-      </c>
       <c r="C346" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D346" s="2">
         <v>1</v>
@@ -7409,13 +7409,13 @@
     </row>
     <row r="347" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B347" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B347" s="2" t="s">
-        <v>698</v>
-      </c>
       <c r="C347" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D347" s="2">
         <v>1</v>
